--- a/keep health.xlsx
+++ b/keep health.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\health\fitness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271FDFCF-46EA-4240-B059-74C6F0D4A302}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0206F7E-DF71-49FF-9C0C-07811D5A1DD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="计划轮廓" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="147">
   <si>
     <t>单位</t>
   </si>
@@ -547,6 +547,18 @@
   </si>
   <si>
     <t>荔枝</t>
+  </si>
+  <si>
+    <t>香天下</t>
+  </si>
+  <si>
+    <t>龙虾</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>油</t>
   </si>
 </sst>
 </file>
@@ -1790,6 +1802,9 @@
                 <c:pt idx="4">
                   <c:v>111.5</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>111.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1900,6 +1915,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,6 +2042,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4372,6 +4396,170 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="152400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EC93D8-1A21-43AE-A531-57BFC27E6B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="25527000"/>
+          <a:ext cx="800100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="152400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C23CAD-E55C-4C0C-BE00-6DB9ADC1C985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="48129825"/>
+          <a:ext cx="800100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="152400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26240984-721A-4AAE-8CD9-47CFECCCCA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="51368325"/>
+          <a:ext cx="800100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="152400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE32A9A-71AA-4BB8-A72A-042ACF358AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="54740175"/>
+          <a:ext cx="800100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4737,10 +4925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4967,9 +5155,8 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <f>C17*F16</f>
-        <v>20.93</v>
+      <c r="F17" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -4979,14 +5166,19 @@
       </c>
       <c r="C18" s="12">
         <f>F18/F16</f>
-        <v>125.17916865742953</v>
+        <v>433.34925943621596</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
-        <v>524</v>
+        <v>1814</v>
       </c>
       <c r="G18" s="14"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="G20" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
@@ -4997,11 +5189,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32:L32"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C242" sqref="C242"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6972,15 +7165,33 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="18" customFormat="1">
+      <c r="C59" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="F59" s="18">
         <v>1</v>
       </c>
+      <c r="G59" s="18">
+        <v>10</v>
+      </c>
       <c r="H59" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I59" s="18">
+        <v>900</v>
       </c>
       <c r="J59" s="18">
         <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="K59" s="18">
         <v>0</v>
       </c>
       <c r="L59" s="50">
@@ -7215,6 +7426,11 @@
       <c r="L66" s="50">
         <f>H66*K66/100</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="6:6">
+      <c r="F241" s="15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7227,10 +7443,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:M168"/>
+  <dimension ref="A3:M277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="N158" sqref="N158"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="J275" sqref="J275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7584,7 +7800,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="L16" s="50">
-        <f t="shared" ref="L15:L78" si="6">H16*K16/100</f>
+        <f t="shared" ref="L16:L78" si="6">H16*K16/100</f>
         <v>8.2799999999999994</v>
       </c>
       <c r="M16" s="26"/>
@@ -8315,7 +8531,7 @@
         <v>99</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F38" s="18">
         <v>1</v>
@@ -11405,7 +11621,7 @@
         <v>12.1</v>
       </c>
       <c r="L143" s="50">
-        <f t="shared" ref="L143:L156" si="42">H143*K143/100</f>
+        <f t="shared" ref="L143:L153" si="42">H143*K143/100</f>
         <v>14.52</v>
       </c>
       <c r="M143" s="55"/>
@@ -12191,6 +12407,2390 @@
       <c r="L168" s="51"/>
       <c r="M168" s="48"/>
     </row>
+    <row r="170" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="171" spans="1:13">
+      <c r="A171" s="57"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G171" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H171" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I171" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J171" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K171" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L171" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M171" s="59"/>
+    </row>
+    <row r="172" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A172" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B172" s="64">
+        <v>43623</v>
+      </c>
+      <c r="C172" s="51"/>
+      <c r="D172" s="52"/>
+      <c r="E172" s="51"/>
+      <c r="F172" s="51"/>
+      <c r="G172" s="51"/>
+      <c r="H172" s="51"/>
+      <c r="I172" s="51"/>
+      <c r="J172" s="51"/>
+      <c r="K172" s="51"/>
+      <c r="L172" s="53"/>
+      <c r="M172" s="55"/>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B173" s="60">
+        <f>SUM(J172:J183)</f>
+        <v>0</v>
+      </c>
+      <c r="C173" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D173" s="53"/>
+      <c r="E173" s="53"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="53"/>
+      <c r="H173" s="53"/>
+      <c r="I173" s="53"/>
+      <c r="J173" s="53"/>
+      <c r="K173" s="53"/>
+      <c r="L173" s="53"/>
+      <c r="M173" s="55"/>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B174" s="60">
+        <f>SUMIF(C172:C183,A174,J172:J183)</f>
+        <v>0</v>
+      </c>
+      <c r="C174" s="51"/>
+      <c r="D174" s="51"/>
+      <c r="E174" s="51"/>
+      <c r="F174" s="51"/>
+      <c r="G174" s="51"/>
+      <c r="H174" s="51"/>
+      <c r="I174" s="51"/>
+      <c r="J174" s="51"/>
+      <c r="K174" s="51"/>
+      <c r="L174" s="50"/>
+      <c r="M174" s="55"/>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" s="60">
+        <f>SUMIF(C172:C183,A175,J172:J183)</f>
+        <v>0</v>
+      </c>
+      <c r="C175" s="53"/>
+      <c r="D175" s="53"/>
+      <c r="E175" s="53"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="53"/>
+      <c r="H175" s="53"/>
+      <c r="I175" s="53"/>
+      <c r="J175" s="53"/>
+      <c r="K175" s="53"/>
+      <c r="L175" s="50"/>
+      <c r="M175" s="55"/>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="60">
+        <f>SUMIF(C172:C183,A176,J172:J183)</f>
+        <v>0</v>
+      </c>
+      <c r="C176" s="53"/>
+      <c r="D176" s="53"/>
+      <c r="E176" s="53"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="53"/>
+      <c r="H176" s="53"/>
+      <c r="I176" s="53"/>
+      <c r="J176" s="53"/>
+      <c r="K176" s="53"/>
+      <c r="L176" s="50"/>
+      <c r="M176" s="55"/>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="62"/>
+      <c r="B177" s="60"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="22"/>
+      <c r="J177" s="22"/>
+      <c r="K177" s="22"/>
+      <c r="L177" s="50"/>
+      <c r="M177" s="55"/>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B178" s="60"/>
+      <c r="C178" s="65"/>
+      <c r="D178" s="65"/>
+      <c r="E178" s="65"/>
+      <c r="F178" s="65"/>
+      <c r="G178" s="65"/>
+      <c r="H178" s="65"/>
+      <c r="I178" s="65"/>
+      <c r="J178" s="65"/>
+      <c r="K178" s="65"/>
+      <c r="L178" s="50"/>
+      <c r="M178" s="55"/>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="60">
+        <f>SUM(L172:L183)</f>
+        <v>0</v>
+      </c>
+      <c r="C179" s="53"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="53"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="53"/>
+      <c r="H179" s="53"/>
+      <c r="I179" s="53"/>
+      <c r="J179" s="53"/>
+      <c r="K179" s="53"/>
+      <c r="L179" s="50"/>
+      <c r="M179" s="55"/>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="61"/>
+      <c r="B180" s="60"/>
+      <c r="C180" s="51"/>
+      <c r="D180" s="51"/>
+      <c r="E180" s="51"/>
+      <c r="F180" s="51"/>
+      <c r="G180" s="51"/>
+      <c r="H180" s="51"/>
+      <c r="I180" s="51"/>
+      <c r="J180" s="51"/>
+      <c r="K180" s="51"/>
+      <c r="L180" s="50"/>
+      <c r="M180" s="47"/>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="61"/>
+      <c r="B181" s="45"/>
+      <c r="C181" s="51"/>
+      <c r="D181" s="51"/>
+      <c r="E181" s="51"/>
+      <c r="F181" s="51"/>
+      <c r="G181" s="51"/>
+      <c r="H181" s="51"/>
+      <c r="I181" s="51"/>
+      <c r="J181" s="51"/>
+      <c r="K181" s="51"/>
+      <c r="L181" s="51"/>
+      <c r="M181" s="47"/>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" s="61"/>
+      <c r="B182" s="45"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="53"/>
+      <c r="E182" s="53"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="53"/>
+      <c r="H182" s="53"/>
+      <c r="I182" s="53"/>
+      <c r="J182" s="53"/>
+      <c r="K182" s="53"/>
+      <c r="L182" s="53"/>
+      <c r="M182" s="47"/>
+    </row>
+    <row r="183" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A183" s="63"/>
+      <c r="B183" s="46"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="51"/>
+      <c r="E183" s="51"/>
+      <c r="F183" s="51"/>
+      <c r="G183" s="51"/>
+      <c r="H183" s="51"/>
+      <c r="I183" s="51"/>
+      <c r="J183" s="51"/>
+      <c r="K183" s="51"/>
+      <c r="L183" s="51"/>
+      <c r="M183" s="48"/>
+    </row>
+    <row r="185" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="186" spans="1:13">
+      <c r="A186" s="57"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G186" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I186" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J186" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K186" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L186" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M186" s="59"/>
+    </row>
+    <row r="187" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A187" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B187" s="64">
+        <v>43624</v>
+      </c>
+      <c r="C187" s="51"/>
+      <c r="D187" s="52"/>
+      <c r="E187" s="51"/>
+      <c r="F187" s="51"/>
+      <c r="G187" s="51"/>
+      <c r="H187" s="51"/>
+      <c r="I187" s="51"/>
+      <c r="J187" s="51"/>
+      <c r="K187" s="51"/>
+      <c r="L187" s="53"/>
+      <c r="M187" s="55"/>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" s="60">
+        <f>SUM(J187:J198)</f>
+        <v>0</v>
+      </c>
+      <c r="C188" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D188" s="53"/>
+      <c r="E188" s="53"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="53"/>
+      <c r="H188" s="53"/>
+      <c r="I188" s="53"/>
+      <c r="J188" s="53"/>
+      <c r="K188" s="53"/>
+      <c r="L188" s="53"/>
+      <c r="M188" s="55"/>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B189" s="60">
+        <f>SUMIF(C187:C198,A189,J187:J198)</f>
+        <v>0</v>
+      </c>
+      <c r="C189" s="51"/>
+      <c r="D189" s="51"/>
+      <c r="E189" s="51"/>
+      <c r="F189" s="51"/>
+      <c r="G189" s="51"/>
+      <c r="H189" s="51"/>
+      <c r="I189" s="51"/>
+      <c r="J189" s="51"/>
+      <c r="K189" s="51"/>
+      <c r="L189" s="50"/>
+      <c r="M189" s="55"/>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="60">
+        <f>SUMIF(C187:C198,A190,J187:J198)</f>
+        <v>0</v>
+      </c>
+      <c r="C190" s="53"/>
+      <c r="D190" s="53"/>
+      <c r="E190" s="53"/>
+      <c r="F190" s="53"/>
+      <c r="G190" s="53"/>
+      <c r="H190" s="53"/>
+      <c r="I190" s="53"/>
+      <c r="J190" s="53"/>
+      <c r="K190" s="53"/>
+      <c r="L190" s="50"/>
+      <c r="M190" s="55"/>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" s="60">
+        <f>SUMIF(C187:C198,A191,J187:J198)</f>
+        <v>0</v>
+      </c>
+      <c r="C191" s="53"/>
+      <c r="D191" s="53"/>
+      <c r="E191" s="53"/>
+      <c r="F191" s="53"/>
+      <c r="G191" s="53"/>
+      <c r="H191" s="53"/>
+      <c r="I191" s="53"/>
+      <c r="J191" s="53"/>
+      <c r="K191" s="53"/>
+      <c r="L191" s="50"/>
+      <c r="M191" s="55"/>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192" s="62"/>
+      <c r="B192" s="60"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="22"/>
+      <c r="I192" s="22"/>
+      <c r="J192" s="22"/>
+      <c r="K192" s="22"/>
+      <c r="L192" s="50"/>
+      <c r="M192" s="55"/>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B193" s="60"/>
+      <c r="C193" s="65"/>
+      <c r="D193" s="65"/>
+      <c r="E193" s="65"/>
+      <c r="F193" s="65"/>
+      <c r="G193" s="65"/>
+      <c r="H193" s="65"/>
+      <c r="I193" s="65"/>
+      <c r="J193" s="65"/>
+      <c r="K193" s="65"/>
+      <c r="L193" s="50"/>
+      <c r="M193" s="55"/>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="60">
+        <f>SUM(L187:L198)</f>
+        <v>0</v>
+      </c>
+      <c r="C194" s="53"/>
+      <c r="D194" s="53"/>
+      <c r="E194" s="53"/>
+      <c r="F194" s="53"/>
+      <c r="G194" s="53"/>
+      <c r="H194" s="53"/>
+      <c r="I194" s="53"/>
+      <c r="J194" s="53"/>
+      <c r="K194" s="53"/>
+      <c r="L194" s="50"/>
+      <c r="M194" s="55"/>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" s="61"/>
+      <c r="B195" s="60"/>
+      <c r="C195" s="51"/>
+      <c r="D195" s="51"/>
+      <c r="E195" s="51"/>
+      <c r="F195" s="51"/>
+      <c r="G195" s="51"/>
+      <c r="H195" s="51"/>
+      <c r="I195" s="51"/>
+      <c r="J195" s="51"/>
+      <c r="K195" s="51"/>
+      <c r="L195" s="50"/>
+      <c r="M195" s="47"/>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" s="61"/>
+      <c r="B196" s="45"/>
+      <c r="C196" s="51"/>
+      <c r="D196" s="51"/>
+      <c r="E196" s="51"/>
+      <c r="F196" s="51"/>
+      <c r="G196" s="51"/>
+      <c r="H196" s="51"/>
+      <c r="I196" s="51"/>
+      <c r="J196" s="51"/>
+      <c r="K196" s="51"/>
+      <c r="L196" s="51"/>
+      <c r="M196" s="47"/>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" s="61"/>
+      <c r="B197" s="45"/>
+      <c r="C197" s="53"/>
+      <c r="D197" s="53"/>
+      <c r="E197" s="53"/>
+      <c r="F197" s="53"/>
+      <c r="G197" s="53"/>
+      <c r="H197" s="53"/>
+      <c r="I197" s="53"/>
+      <c r="J197" s="53"/>
+      <c r="K197" s="53"/>
+      <c r="L197" s="53"/>
+      <c r="M197" s="47"/>
+    </row>
+    <row r="198" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A198" s="63"/>
+      <c r="B198" s="46"/>
+      <c r="C198" s="53"/>
+      <c r="D198" s="51"/>
+      <c r="E198" s="51"/>
+      <c r="F198" s="51"/>
+      <c r="G198" s="51"/>
+      <c r="H198" s="51"/>
+      <c r="I198" s="51"/>
+      <c r="J198" s="51"/>
+      <c r="K198" s="51"/>
+      <c r="L198" s="51"/>
+      <c r="M198" s="48"/>
+    </row>
+    <row r="200" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="201" spans="1:13">
+      <c r="A201" s="57"/>
+      <c r="B201" s="58"/>
+      <c r="C201" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G201" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H201" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I201" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J201" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K201" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L201" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M201" s="59"/>
+    </row>
+    <row r="202" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A202" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202" s="64">
+        <v>43625</v>
+      </c>
+      <c r="C202" s="51"/>
+      <c r="D202" s="52"/>
+      <c r="E202" s="51"/>
+      <c r="F202" s="51"/>
+      <c r="G202" s="51"/>
+      <c r="H202" s="51"/>
+      <c r="I202" s="51"/>
+      <c r="J202" s="51"/>
+      <c r="K202" s="51"/>
+      <c r="L202" s="53"/>
+      <c r="M202" s="55"/>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="A203" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B203" s="60">
+        <f>SUM(J202:J213)</f>
+        <v>0</v>
+      </c>
+      <c r="C203" s="53"/>
+      <c r="D203" s="53"/>
+      <c r="E203" s="53"/>
+      <c r="F203" s="53"/>
+      <c r="G203" s="53"/>
+      <c r="H203" s="53"/>
+      <c r="I203" s="53"/>
+      <c r="J203" s="53"/>
+      <c r="K203" s="53"/>
+      <c r="L203" s="53"/>
+      <c r="M203" s="55"/>
+    </row>
+    <row r="204" spans="1:13">
+      <c r="A204" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B204" s="60">
+        <f>SUMIF(C202:C213,A204,J202:J213)</f>
+        <v>0</v>
+      </c>
+      <c r="C204" s="51"/>
+      <c r="D204" s="51"/>
+      <c r="E204" s="51"/>
+      <c r="F204" s="51"/>
+      <c r="G204" s="51"/>
+      <c r="H204" s="51"/>
+      <c r="I204" s="51"/>
+      <c r="J204" s="51"/>
+      <c r="K204" s="51"/>
+      <c r="L204" s="50"/>
+      <c r="M204" s="55"/>
+    </row>
+    <row r="205" spans="1:13">
+      <c r="A205" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="60">
+        <f>SUMIF(C202:C213,A205,J202:J213)</f>
+        <v>0</v>
+      </c>
+      <c r="C205" s="53"/>
+      <c r="D205" s="53"/>
+      <c r="E205" s="53"/>
+      <c r="F205" s="53"/>
+      <c r="G205" s="53"/>
+      <c r="H205" s="53"/>
+      <c r="I205" s="53"/>
+      <c r="J205" s="53"/>
+      <c r="K205" s="53"/>
+      <c r="L205" s="50"/>
+      <c r="M205" s="55"/>
+    </row>
+    <row r="206" spans="1:13">
+      <c r="A206" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="60">
+        <f>SUMIF(C202:C213,A206,J202:J213)</f>
+        <v>0</v>
+      </c>
+      <c r="C206" s="53"/>
+      <c r="D206" s="53"/>
+      <c r="E206" s="53"/>
+      <c r="F206" s="53"/>
+      <c r="G206" s="53"/>
+      <c r="H206" s="53"/>
+      <c r="I206" s="53"/>
+      <c r="J206" s="53"/>
+      <c r="K206" s="53"/>
+      <c r="L206" s="50"/>
+      <c r="M206" s="55"/>
+    </row>
+    <row r="207" spans="1:13">
+      <c r="A207" s="62"/>
+      <c r="B207" s="60"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="22"/>
+      <c r="I207" s="22"/>
+      <c r="J207" s="22"/>
+      <c r="K207" s="22"/>
+      <c r="L207" s="50"/>
+      <c r="M207" s="55"/>
+    </row>
+    <row r="208" spans="1:13">
+      <c r="A208" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B208" s="60"/>
+      <c r="C208" s="65"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="65"/>
+      <c r="F208" s="65"/>
+      <c r="G208" s="65"/>
+      <c r="H208" s="65"/>
+      <c r="I208" s="65"/>
+      <c r="J208" s="65"/>
+      <c r="K208" s="65"/>
+      <c r="L208" s="50"/>
+      <c r="M208" s="55"/>
+    </row>
+    <row r="209" spans="1:13">
+      <c r="A209" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="60">
+        <f>SUM(L202:L213)</f>
+        <v>0</v>
+      </c>
+      <c r="C209" s="53"/>
+      <c r="D209" s="53"/>
+      <c r="E209" s="53"/>
+      <c r="F209" s="53"/>
+      <c r="G209" s="53"/>
+      <c r="H209" s="53"/>
+      <c r="I209" s="53"/>
+      <c r="J209" s="53"/>
+      <c r="K209" s="53"/>
+      <c r="L209" s="50"/>
+      <c r="M209" s="55"/>
+    </row>
+    <row r="210" spans="1:13">
+      <c r="A210" s="61"/>
+      <c r="B210" s="60"/>
+      <c r="C210" s="51"/>
+      <c r="D210" s="51"/>
+      <c r="E210" s="51"/>
+      <c r="F210" s="51"/>
+      <c r="G210" s="51"/>
+      <c r="H210" s="51"/>
+      <c r="I210" s="51"/>
+      <c r="J210" s="51"/>
+      <c r="K210" s="51"/>
+      <c r="L210" s="50"/>
+      <c r="M210" s="47"/>
+    </row>
+    <row r="211" spans="1:13">
+      <c r="A211" s="61"/>
+      <c r="B211" s="45"/>
+      <c r="C211" s="51"/>
+      <c r="D211" s="51"/>
+      <c r="E211" s="51"/>
+      <c r="F211" s="51"/>
+      <c r="G211" s="51"/>
+      <c r="H211" s="51"/>
+      <c r="I211" s="51"/>
+      <c r="J211" s="51"/>
+      <c r="K211" s="51"/>
+      <c r="L211" s="51"/>
+      <c r="M211" s="47"/>
+    </row>
+    <row r="212" spans="1:13">
+      <c r="A212" s="61"/>
+      <c r="B212" s="45"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="53"/>
+      <c r="E212" s="53"/>
+      <c r="F212" s="53"/>
+      <c r="G212" s="53"/>
+      <c r="H212" s="53"/>
+      <c r="I212" s="53"/>
+      <c r="J212" s="53"/>
+      <c r="K212" s="53"/>
+      <c r="L212" s="53"/>
+      <c r="M212" s="47"/>
+    </row>
+    <row r="213" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A213" s="63"/>
+      <c r="B213" s="46"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="51"/>
+      <c r="E213" s="51"/>
+      <c r="F213" s="51"/>
+      <c r="G213" s="51"/>
+      <c r="H213" s="51"/>
+      <c r="I213" s="51"/>
+      <c r="J213" s="51"/>
+      <c r="K213" s="51"/>
+      <c r="L213" s="51"/>
+      <c r="M213" s="48"/>
+    </row>
+    <row r="217" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="218" spans="1:13">
+      <c r="A218" s="57"/>
+      <c r="B218" s="58"/>
+      <c r="C218" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F218" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G218" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H218" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I218" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J218" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K218" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L218" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M218" s="59"/>
+    </row>
+    <row r="219" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A219" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B219" s="64">
+        <v>43626</v>
+      </c>
+      <c r="C219" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D219" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E219" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F219" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G219" s="51">
+        <v>200</v>
+      </c>
+      <c r="H219" s="51">
+        <f>F219*G219</f>
+        <v>300</v>
+      </c>
+      <c r="I219" s="51">
+        <v>48.29</v>
+      </c>
+      <c r="J219" s="51">
+        <f>H219*I219/100</f>
+        <v>144.87</v>
+      </c>
+      <c r="K219" s="51">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L219" s="53">
+        <f t="shared" ref="L219:L222" si="46">H219*K219/100</f>
+        <v>6.21</v>
+      </c>
+      <c r="M219" s="55"/>
+    </row>
+    <row r="220" spans="1:13">
+      <c r="A220" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B220" s="60">
+        <f>SUM(J219:J230)</f>
+        <v>1274.07</v>
+      </c>
+      <c r="C220" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D220" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E220" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F220" s="53">
+        <v>1</v>
+      </c>
+      <c r="G220" s="53">
+        <v>60</v>
+      </c>
+      <c r="H220" s="53">
+        <f t="shared" ref="H220:H222" si="47">F220*G220</f>
+        <v>60</v>
+      </c>
+      <c r="I220" s="53">
+        <v>151</v>
+      </c>
+      <c r="J220" s="53">
+        <f t="shared" ref="J220:J222" si="48">H220*I220/100</f>
+        <v>90.6</v>
+      </c>
+      <c r="K220" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="L220" s="53">
+        <f t="shared" si="46"/>
+        <v>7.26</v>
+      </c>
+      <c r="M220" s="55"/>
+    </row>
+    <row r="221" spans="1:13">
+      <c r="A221" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B221" s="60">
+        <f>SUMIF(C219:C230,A221,J219:J230)</f>
+        <v>670.47</v>
+      </c>
+      <c r="C221" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D221" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E221" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F221" s="53">
+        <v>1</v>
+      </c>
+      <c r="G221" s="53">
+        <v>200</v>
+      </c>
+      <c r="H221" s="53">
+        <f t="shared" si="47"/>
+        <v>200</v>
+      </c>
+      <c r="I221" s="53">
+        <v>228</v>
+      </c>
+      <c r="J221" s="53">
+        <f t="shared" si="48"/>
+        <v>456</v>
+      </c>
+      <c r="K221" s="53">
+        <v>10.71</v>
+      </c>
+      <c r="L221" s="50">
+        <f t="shared" si="46"/>
+        <v>21.42</v>
+      </c>
+      <c r="M221" s="55"/>
+    </row>
+    <row r="222" spans="1:13">
+      <c r="A222" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="60">
+        <f>SUMIF(C219:C230,A222,J219:J230)</f>
+        <v>603.6</v>
+      </c>
+      <c r="C222" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D222" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E222" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F222" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="G222" s="53">
+        <v>200</v>
+      </c>
+      <c r="H222" s="53">
+        <f t="shared" si="47"/>
+        <v>250</v>
+      </c>
+      <c r="I222" s="53">
+        <v>66</v>
+      </c>
+      <c r="J222" s="53">
+        <f t="shared" si="48"/>
+        <v>165</v>
+      </c>
+      <c r="K222" s="53">
+        <v>3.2</v>
+      </c>
+      <c r="L222" s="50">
+        <f t="shared" si="46"/>
+        <v>8</v>
+      </c>
+      <c r="M222" s="55"/>
+    </row>
+    <row r="223" spans="1:13">
+      <c r="A223" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="60">
+        <f>SUMIF(C219:C230,A223,J219:J230)</f>
+        <v>0</v>
+      </c>
+      <c r="C223" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D223" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E223" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F223" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G223" s="51">
+        <v>100</v>
+      </c>
+      <c r="H223" s="51">
+        <f>F223*G223</f>
+        <v>150</v>
+      </c>
+      <c r="I223" s="51">
+        <v>126</v>
+      </c>
+      <c r="J223" s="51">
+        <f>H223*I223/100</f>
+        <v>189</v>
+      </c>
+      <c r="K223" s="51">
+        <v>22</v>
+      </c>
+      <c r="L223" s="53">
+        <f>H223*K223/100</f>
+        <v>33</v>
+      </c>
+      <c r="M223" s="55"/>
+    </row>
+    <row r="224" spans="1:13">
+      <c r="A224" s="62"/>
+      <c r="B224" s="60"/>
+      <c r="C224" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D224" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E224" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F224" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="G224" s="53">
+        <v>150</v>
+      </c>
+      <c r="H224" s="53">
+        <f t="shared" ref="H224:H225" si="49">F224*G224</f>
+        <v>60</v>
+      </c>
+      <c r="I224" s="53">
+        <v>116</v>
+      </c>
+      <c r="J224" s="53">
+        <f t="shared" ref="J224:J225" si="50">H224*I224/100</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K224" s="53"/>
+      <c r="L224" s="50">
+        <f t="shared" ref="L224:L225" si="51">H224*K224/100</f>
+        <v>0</v>
+      </c>
+      <c r="M224" s="55"/>
+    </row>
+    <row r="225" spans="1:13">
+      <c r="A225" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B225" s="60"/>
+      <c r="C225" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D225" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E225" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F225" s="51">
+        <v>3</v>
+      </c>
+      <c r="G225" s="51">
+        <v>50</v>
+      </c>
+      <c r="H225" s="51">
+        <f t="shared" si="49"/>
+        <v>150</v>
+      </c>
+      <c r="I225" s="51">
+        <v>106</v>
+      </c>
+      <c r="J225" s="51">
+        <f t="shared" si="50"/>
+        <v>159</v>
+      </c>
+      <c r="K225" s="51">
+        <v>20.2</v>
+      </c>
+      <c r="L225" s="50">
+        <f t="shared" si="51"/>
+        <v>30.3</v>
+      </c>
+      <c r="M225" s="55"/>
+    </row>
+    <row r="226" spans="1:13">
+      <c r="A226" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="60">
+        <f>SUM(L219:L230)</f>
+        <v>106.19</v>
+      </c>
+      <c r="C226" s="51"/>
+      <c r="D226" s="51"/>
+      <c r="E226" s="51"/>
+      <c r="F226" s="51"/>
+      <c r="G226" s="51"/>
+      <c r="H226" s="51"/>
+      <c r="I226" s="51"/>
+      <c r="J226" s="51"/>
+      <c r="K226" s="51"/>
+      <c r="L226" s="50"/>
+      <c r="M226" s="55"/>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="A227" s="61"/>
+      <c r="B227" s="60"/>
+      <c r="C227" s="65"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="65"/>
+      <c r="F227" s="65"/>
+      <c r="G227" s="65"/>
+      <c r="H227" s="65"/>
+      <c r="I227" s="65"/>
+      <c r="J227" s="65"/>
+      <c r="K227" s="65"/>
+      <c r="L227" s="50"/>
+      <c r="M227" s="47"/>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="61"/>
+      <c r="B228" s="45"/>
+      <c r="M228" s="47"/>
+    </row>
+    <row r="229" spans="1:13">
+      <c r="A229" s="61"/>
+      <c r="B229" s="45"/>
+      <c r="C229" s="53"/>
+      <c r="D229" s="53"/>
+      <c r="E229" s="53"/>
+      <c r="F229" s="53"/>
+      <c r="G229" s="53"/>
+      <c r="H229" s="53"/>
+      <c r="I229" s="53"/>
+      <c r="J229" s="53"/>
+      <c r="K229" s="53"/>
+      <c r="L229" s="53"/>
+      <c r="M229" s="47"/>
+    </row>
+    <row r="230" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A230" s="63"/>
+      <c r="B230" s="46"/>
+      <c r="C230" s="53"/>
+      <c r="D230" s="51"/>
+      <c r="E230" s="51"/>
+      <c r="F230" s="51"/>
+      <c r="G230" s="51"/>
+      <c r="H230" s="51"/>
+      <c r="I230" s="51"/>
+      <c r="J230" s="51"/>
+      <c r="K230" s="51"/>
+      <c r="L230" s="50"/>
+      <c r="M230" s="48"/>
+    </row>
+    <row r="232" spans="1:13" ht="22.5" customHeight="1" thickBot="1"/>
+    <row r="233" spans="1:13" s="50" customFormat="1">
+      <c r="A233" s="57"/>
+      <c r="B233" s="58"/>
+      <c r="C233" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F233" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G233" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H233" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I233" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J233" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K233" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L233" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M233" s="59"/>
+    </row>
+    <row r="234" spans="1:13" s="50" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A234" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B234" s="64">
+        <v>43627</v>
+      </c>
+      <c r="C234" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D234" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E234" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F234" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G234" s="51">
+        <v>200</v>
+      </c>
+      <c r="H234" s="51">
+        <f>F234*G234</f>
+        <v>300</v>
+      </c>
+      <c r="I234" s="51">
+        <v>48.29</v>
+      </c>
+      <c r="J234" s="51">
+        <f>H234*I234/100</f>
+        <v>144.87</v>
+      </c>
+      <c r="K234" s="51">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L234" s="53">
+        <f t="shared" ref="L234:L237" si="52">H234*K234/100</f>
+        <v>6.21</v>
+      </c>
+      <c r="M234" s="55"/>
+    </row>
+    <row r="235" spans="1:13" s="50" customFormat="1">
+      <c r="A235" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B235" s="60">
+        <f>SUM(J234:J245)</f>
+        <v>1315.67</v>
+      </c>
+      <c r="C235" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D235" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E235" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F235" s="53">
+        <v>2</v>
+      </c>
+      <c r="G235" s="53">
+        <v>60</v>
+      </c>
+      <c r="H235" s="53">
+        <f t="shared" ref="H235:H237" si="53">F235*G235</f>
+        <v>120</v>
+      </c>
+      <c r="I235" s="53">
+        <v>151</v>
+      </c>
+      <c r="J235" s="53">
+        <f t="shared" ref="J235:J237" si="54">H235*I235/100</f>
+        <v>181.2</v>
+      </c>
+      <c r="K235" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="L235" s="53">
+        <f t="shared" si="52"/>
+        <v>14.52</v>
+      </c>
+      <c r="M235" s="55"/>
+    </row>
+    <row r="236" spans="1:13" s="50" customFormat="1">
+      <c r="A236" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B236" s="60">
+        <f>SUMIF(C234:C245,A236,J234:J245)</f>
+        <v>592.47</v>
+      </c>
+      <c r="C236" s="53"/>
+      <c r="D236" s="53"/>
+      <c r="E236" s="53"/>
+      <c r="F236" s="53"/>
+      <c r="G236" s="53"/>
+      <c r="H236" s="53"/>
+      <c r="I236" s="53"/>
+      <c r="J236" s="53"/>
+      <c r="K236" s="53"/>
+      <c r="M236" s="55"/>
+    </row>
+    <row r="237" spans="1:13" s="50" customFormat="1">
+      <c r="A237" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="60">
+        <f>SUMIF(C234:C245,A237,J234:J245)</f>
+        <v>723.2</v>
+      </c>
+      <c r="C237" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D237" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E237" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F237" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="G237" s="53">
+        <v>200</v>
+      </c>
+      <c r="H237" s="53">
+        <f t="shared" si="53"/>
+        <v>250</v>
+      </c>
+      <c r="I237" s="53">
+        <v>66</v>
+      </c>
+      <c r="J237" s="53">
+        <f t="shared" si="54"/>
+        <v>165</v>
+      </c>
+      <c r="K237" s="53">
+        <v>3.2</v>
+      </c>
+      <c r="L237" s="50">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="M237" s="55"/>
+    </row>
+    <row r="238" spans="1:13" s="50" customFormat="1">
+      <c r="A238" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" s="60">
+        <f>SUMIF(C234:C245,A238,J234:J245)</f>
+        <v>0</v>
+      </c>
+      <c r="C238" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D238" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E238" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F238" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G238" s="51">
+        <v>100</v>
+      </c>
+      <c r="H238" s="51">
+        <f>F238*G238</f>
+        <v>150</v>
+      </c>
+      <c r="I238" s="51">
+        <v>126</v>
+      </c>
+      <c r="J238" s="51">
+        <f>H238*I238/100</f>
+        <v>189</v>
+      </c>
+      <c r="K238" s="51">
+        <v>22</v>
+      </c>
+      <c r="L238" s="53">
+        <f>H238*K238/100</f>
+        <v>33</v>
+      </c>
+      <c r="M238" s="55"/>
+    </row>
+    <row r="239" spans="1:13" s="50" customFormat="1">
+      <c r="A239" s="62"/>
+      <c r="B239" s="60"/>
+      <c r="C239" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D239" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E239" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F239" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="G239" s="53">
+        <v>150</v>
+      </c>
+      <c r="H239" s="53">
+        <f t="shared" ref="H239" si="55">F239*G239</f>
+        <v>60</v>
+      </c>
+      <c r="I239" s="53">
+        <v>116</v>
+      </c>
+      <c r="J239" s="53">
+        <f t="shared" ref="J239" si="56">H239*I239/100</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="K239" s="53"/>
+      <c r="L239" s="50">
+        <f t="shared" ref="L239" si="57">H239*K239/100</f>
+        <v>0</v>
+      </c>
+      <c r="M239" s="55"/>
+    </row>
+    <row r="240" spans="1:13" s="50" customFormat="1">
+      <c r="A240" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B240" s="60"/>
+      <c r="C240" s="53"/>
+      <c r="D240" s="51"/>
+      <c r="E240" s="51"/>
+      <c r="F240" s="51"/>
+      <c r="G240" s="51"/>
+      <c r="H240" s="51"/>
+      <c r="I240" s="51"/>
+      <c r="J240" s="51"/>
+      <c r="K240" s="51"/>
+      <c r="M240" s="55"/>
+    </row>
+    <row r="241" spans="1:13" s="50" customFormat="1">
+      <c r="A241" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="60">
+        <f>SUM(L234:L245)</f>
+        <v>67.53</v>
+      </c>
+      <c r="C241" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D241" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E241" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F241" s="53">
+        <v>2</v>
+      </c>
+      <c r="G241" s="53">
+        <v>100</v>
+      </c>
+      <c r="H241" s="53">
+        <f t="shared" ref="H241:H242" si="58">F241*G241</f>
+        <v>200</v>
+      </c>
+      <c r="I241" s="53">
+        <v>94</v>
+      </c>
+      <c r="J241" s="53">
+        <f t="shared" ref="J241:J242" si="59">H241*I241/100</f>
+        <v>188</v>
+      </c>
+      <c r="K241" s="53">
+        <v>2.9</v>
+      </c>
+      <c r="L241" s="50">
+        <f t="shared" ref="L241:L242" si="60">H241*K241/100</f>
+        <v>5.8</v>
+      </c>
+      <c r="M241" s="55"/>
+    </row>
+    <row r="242" spans="1:13" s="50" customFormat="1">
+      <c r="A242" s="61"/>
+      <c r="B242" s="60"/>
+      <c r="C242" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D242" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E242" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F242" s="53">
+        <v>3</v>
+      </c>
+      <c r="G242" s="53">
+        <v>36</v>
+      </c>
+      <c r="H242" s="53">
+        <f t="shared" si="58"/>
+        <v>108</v>
+      </c>
+      <c r="I242" s="53">
+        <v>350</v>
+      </c>
+      <c r="J242" s="53">
+        <f t="shared" si="59"/>
+        <v>378</v>
+      </c>
+      <c r="K242" s="53"/>
+      <c r="L242" s="50">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="M242" s="47"/>
+    </row>
+    <row r="243" spans="1:13" s="50" customFormat="1">
+      <c r="A243" s="61"/>
+      <c r="B243" s="45"/>
+      <c r="M243" s="47"/>
+    </row>
+    <row r="244" spans="1:13" s="50" customFormat="1">
+      <c r="A244" s="61"/>
+      <c r="B244" s="45"/>
+      <c r="C244" s="53"/>
+      <c r="D244" s="53"/>
+      <c r="E244" s="53"/>
+      <c r="F244" s="53"/>
+      <c r="G244" s="53"/>
+      <c r="H244" s="53"/>
+      <c r="I244" s="53"/>
+      <c r="J244" s="53"/>
+      <c r="K244" s="53"/>
+      <c r="L244" s="53"/>
+      <c r="M244" s="47"/>
+    </row>
+    <row r="245" spans="1:13" s="50" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A245" s="63"/>
+      <c r="B245" s="46"/>
+      <c r="C245" s="53"/>
+      <c r="D245" s="51"/>
+      <c r="E245" s="51"/>
+      <c r="F245" s="51"/>
+      <c r="G245" s="51"/>
+      <c r="H245" s="51"/>
+      <c r="I245" s="51"/>
+      <c r="J245" s="51"/>
+      <c r="K245" s="51"/>
+      <c r="M245" s="48"/>
+    </row>
+    <row r="248" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="249" spans="1:13" s="50" customFormat="1">
+      <c r="A249" s="57"/>
+      <c r="B249" s="58"/>
+      <c r="C249" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F249" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G249" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H249" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I249" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J249" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K249" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L249" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M249" s="59"/>
+    </row>
+    <row r="250" spans="1:13" s="50" customFormat="1">
+      <c r="A250" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B250" s="64">
+        <v>43628</v>
+      </c>
+      <c r="C250" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D250" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E250" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F250" s="53">
+        <v>1</v>
+      </c>
+      <c r="G250" s="53">
+        <v>300</v>
+      </c>
+      <c r="H250" s="53">
+        <f t="shared" ref="H250" si="61">F250*G250</f>
+        <v>300</v>
+      </c>
+      <c r="I250" s="53">
+        <v>46</v>
+      </c>
+      <c r="J250" s="53">
+        <f t="shared" ref="J250" si="62">H250*I250/100</f>
+        <v>138</v>
+      </c>
+      <c r="K250" s="53"/>
+      <c r="L250" s="50">
+        <f t="shared" ref="L250" si="63">H250*K250/100</f>
+        <v>0</v>
+      </c>
+      <c r="M250" s="55"/>
+    </row>
+    <row r="251" spans="1:13" s="50" customFormat="1">
+      <c r="A251" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B251" s="60">
+        <f>SUM(J250:J261)</f>
+        <v>1355.2089999999998</v>
+      </c>
+      <c r="C251" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D251" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E251" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F251" s="53">
+        <v>2</v>
+      </c>
+      <c r="G251" s="53">
+        <v>60</v>
+      </c>
+      <c r="H251" s="53">
+        <f t="shared" ref="H251:H254" si="64">F251*G251</f>
+        <v>120</v>
+      </c>
+      <c r="I251" s="53">
+        <v>151</v>
+      </c>
+      <c r="J251" s="53">
+        <f t="shared" ref="J251:J254" si="65">H251*I251/100</f>
+        <v>181.2</v>
+      </c>
+      <c r="K251" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="L251" s="53">
+        <f t="shared" ref="L251:L254" si="66">H251*K251/100</f>
+        <v>14.52</v>
+      </c>
+      <c r="M251" s="55"/>
+    </row>
+    <row r="252" spans="1:13" s="50" customFormat="1">
+      <c r="A252" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B252" s="60">
+        <f>SUMIF(C250:C261,A252,J250:J261)</f>
+        <v>539</v>
+      </c>
+      <c r="C252" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D252" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E252" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F252" s="53">
+        <v>1</v>
+      </c>
+      <c r="G252" s="53">
+        <v>100</v>
+      </c>
+      <c r="H252" s="53">
+        <f t="shared" si="64"/>
+        <v>100</v>
+      </c>
+      <c r="I252" s="53">
+        <v>227</v>
+      </c>
+      <c r="J252" s="53">
+        <f t="shared" si="65"/>
+        <v>227</v>
+      </c>
+      <c r="K252" s="53"/>
+      <c r="L252" s="50">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="M252" s="55"/>
+    </row>
+    <row r="253" spans="1:13" s="50" customFormat="1">
+      <c r="A253" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="60">
+        <f>SUMIF(C250:C261,A253,J250:J261)</f>
+        <v>816.20899999999995</v>
+      </c>
+      <c r="C253" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D253" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E253" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F253" s="53">
+        <v>2</v>
+      </c>
+      <c r="G253" s="53">
+        <v>100</v>
+      </c>
+      <c r="H253" s="53">
+        <f t="shared" si="64"/>
+        <v>200</v>
+      </c>
+      <c r="I253" s="53">
+        <v>94</v>
+      </c>
+      <c r="J253" s="53">
+        <f t="shared" si="65"/>
+        <v>188</v>
+      </c>
+      <c r="K253" s="53">
+        <v>2.9</v>
+      </c>
+      <c r="L253" s="50">
+        <f t="shared" si="66"/>
+        <v>5.8</v>
+      </c>
+      <c r="M253" s="55"/>
+    </row>
+    <row r="254" spans="1:13" s="50" customFormat="1">
+      <c r="A254" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" s="60">
+        <f>SUMIF(C250:C261,A254,J250:J261)</f>
+        <v>0</v>
+      </c>
+      <c r="C254" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D254" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E254" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F254" s="53">
+        <v>2</v>
+      </c>
+      <c r="G254" s="53">
+        <v>35</v>
+      </c>
+      <c r="H254" s="53">
+        <f t="shared" si="64"/>
+        <v>70</v>
+      </c>
+      <c r="I254" s="53">
+        <v>184.87</v>
+      </c>
+      <c r="J254" s="53">
+        <f t="shared" si="65"/>
+        <v>129.40899999999999</v>
+      </c>
+      <c r="K254" s="53">
+        <v>10.58</v>
+      </c>
+      <c r="L254" s="50">
+        <f t="shared" si="66"/>
+        <v>7.4060000000000006</v>
+      </c>
+      <c r="M254" s="55"/>
+    </row>
+    <row r="255" spans="1:13" s="50" customFormat="1">
+      <c r="A255" s="62"/>
+      <c r="B255" s="60"/>
+      <c r="C255" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D255" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E255" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F255" s="53">
+        <v>1</v>
+      </c>
+      <c r="G255" s="53">
+        <v>150</v>
+      </c>
+      <c r="H255" s="53">
+        <f t="shared" ref="H255:H256" si="67">F255*G255</f>
+        <v>150</v>
+      </c>
+      <c r="I255" s="53">
+        <v>116</v>
+      </c>
+      <c r="J255" s="53">
+        <f t="shared" ref="J255:J256" si="68">H255*I255/100</f>
+        <v>174</v>
+      </c>
+      <c r="K255" s="53"/>
+      <c r="L255" s="50">
+        <f t="shared" ref="L255:L256" si="69">H255*K255/100</f>
+        <v>0</v>
+      </c>
+      <c r="M255" s="55"/>
+    </row>
+    <row r="256" spans="1:13" s="50" customFormat="1">
+      <c r="A256" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B256" s="60"/>
+      <c r="C256" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D256" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E256" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F256" s="51">
+        <v>1</v>
+      </c>
+      <c r="G256" s="51">
+        <v>50</v>
+      </c>
+      <c r="H256" s="51">
+        <f t="shared" si="67"/>
+        <v>50</v>
+      </c>
+      <c r="I256" s="51">
+        <v>106</v>
+      </c>
+      <c r="J256" s="51">
+        <f t="shared" si="68"/>
+        <v>53</v>
+      </c>
+      <c r="K256" s="51">
+        <v>20.2</v>
+      </c>
+      <c r="L256" s="50">
+        <f t="shared" si="69"/>
+        <v>10.1</v>
+      </c>
+      <c r="M256" s="55"/>
+    </row>
+    <row r="257" spans="1:13" s="50" customFormat="1">
+      <c r="A257" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="60">
+        <f>SUM(L250:L261)</f>
+        <v>76.765999999999991</v>
+      </c>
+      <c r="C257" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D257" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E257" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F257" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G257" s="51">
+        <v>100</v>
+      </c>
+      <c r="H257" s="51">
+        <f>F257*G257</f>
+        <v>150</v>
+      </c>
+      <c r="I257" s="51">
+        <v>126</v>
+      </c>
+      <c r="J257" s="51">
+        <f>H257*I257/100</f>
+        <v>189</v>
+      </c>
+      <c r="K257" s="51">
+        <v>22</v>
+      </c>
+      <c r="L257" s="53">
+        <f>H257*K257/100</f>
+        <v>33</v>
+      </c>
+      <c r="M257" s="55"/>
+    </row>
+    <row r="258" spans="1:13" s="50" customFormat="1">
+      <c r="A258" s="61"/>
+      <c r="B258" s="60"/>
+      <c r="C258" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D258" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E258" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F258" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="G258" s="51">
+        <v>450</v>
+      </c>
+      <c r="H258" s="51">
+        <f t="shared" ref="H258" si="70">F258*G258</f>
+        <v>90</v>
+      </c>
+      <c r="I258" s="51">
+        <v>84</v>
+      </c>
+      <c r="J258" s="51">
+        <f t="shared" ref="J258" si="71">H258*I258/100</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="K258" s="51">
+        <v>6.6</v>
+      </c>
+      <c r="L258" s="50">
+        <f t="shared" ref="L258" si="72">H258*K258/100</f>
+        <v>5.94</v>
+      </c>
+      <c r="M258" s="47"/>
+    </row>
+    <row r="259" spans="1:13" s="50" customFormat="1">
+      <c r="A259" s="61"/>
+      <c r="B259" s="45"/>
+      <c r="M259" s="47"/>
+    </row>
+    <row r="260" spans="1:13" s="50" customFormat="1">
+      <c r="A260" s="61"/>
+      <c r="B260" s="45"/>
+      <c r="C260" s="53"/>
+      <c r="D260" s="53"/>
+      <c r="E260" s="53"/>
+      <c r="F260" s="53"/>
+      <c r="G260" s="53"/>
+      <c r="H260" s="53"/>
+      <c r="I260" s="53"/>
+      <c r="J260" s="53"/>
+      <c r="K260" s="53"/>
+      <c r="L260" s="53"/>
+      <c r="M260" s="47"/>
+    </row>
+    <row r="261" spans="1:13" s="50" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A261" s="63"/>
+      <c r="B261" s="46"/>
+      <c r="C261" s="53"/>
+      <c r="D261" s="51"/>
+      <c r="E261" s="51"/>
+      <c r="F261" s="51"/>
+      <c r="G261" s="51"/>
+      <c r="H261" s="51"/>
+      <c r="I261" s="51"/>
+      <c r="J261" s="51"/>
+      <c r="K261" s="51"/>
+      <c r="M261" s="48"/>
+    </row>
+    <row r="264" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="265" spans="1:13" s="50" customFormat="1">
+      <c r="A265" s="57"/>
+      <c r="B265" s="58"/>
+      <c r="C265" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E265" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F265" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G265" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H265" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I265" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J265" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K265" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L265" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M265" s="59"/>
+    </row>
+    <row r="266" spans="1:13" s="50" customFormat="1">
+      <c r="A266" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B266" s="64">
+        <v>43628</v>
+      </c>
+      <c r="C266" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D266" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E266" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F266" s="53">
+        <v>1</v>
+      </c>
+      <c r="G266" s="53">
+        <v>300</v>
+      </c>
+      <c r="H266" s="53">
+        <f t="shared" ref="H266:H272" si="73">F266*G266</f>
+        <v>300</v>
+      </c>
+      <c r="I266" s="53">
+        <v>46</v>
+      </c>
+      <c r="J266" s="53">
+        <f t="shared" ref="J266:J272" si="74">H266*I266/100</f>
+        <v>138</v>
+      </c>
+      <c r="K266" s="53"/>
+      <c r="L266" s="50">
+        <f t="shared" ref="L266:L272" si="75">H266*K266/100</f>
+        <v>0</v>
+      </c>
+      <c r="M266" s="55"/>
+    </row>
+    <row r="267" spans="1:13" s="50" customFormat="1">
+      <c r="A267" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B267" s="60">
+        <f>SUM(J266:J277)</f>
+        <v>1042.51</v>
+      </c>
+      <c r="C267" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D267" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E267" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F267" s="53">
+        <v>2</v>
+      </c>
+      <c r="G267" s="53">
+        <v>60</v>
+      </c>
+      <c r="H267" s="53">
+        <f t="shared" si="73"/>
+        <v>120</v>
+      </c>
+      <c r="I267" s="53">
+        <v>151</v>
+      </c>
+      <c r="J267" s="53">
+        <f t="shared" si="74"/>
+        <v>181.2</v>
+      </c>
+      <c r="K267" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="L267" s="53">
+        <f t="shared" si="75"/>
+        <v>14.52</v>
+      </c>
+      <c r="M267" s="55"/>
+    </row>
+    <row r="268" spans="1:13" s="50" customFormat="1">
+      <c r="A268" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B268" s="60">
+        <f>SUMIF(C266:C277,A268,J266:J277)</f>
+        <v>389.80999999999995</v>
+      </c>
+      <c r="C268" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D268" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E268" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F268" s="51">
+        <v>1.3</v>
+      </c>
+      <c r="G268" s="51">
+        <v>95</v>
+      </c>
+      <c r="H268" s="51">
+        <f t="shared" si="73"/>
+        <v>123.5</v>
+      </c>
+      <c r="I268" s="51">
+        <v>106</v>
+      </c>
+      <c r="J268" s="51">
+        <f t="shared" si="74"/>
+        <v>130.91</v>
+      </c>
+      <c r="K268" s="51">
+        <v>1.59</v>
+      </c>
+      <c r="L268" s="50">
+        <f t="shared" si="75"/>
+        <v>1.9636500000000001</v>
+      </c>
+      <c r="M268" s="55"/>
+    </row>
+    <row r="269" spans="1:13" s="50" customFormat="1">
+      <c r="A269" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="60">
+        <f>SUMIF(C266:C277,A269,J266:J277)</f>
+        <v>562.70000000000005</v>
+      </c>
+      <c r="C269" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D269" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E269" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F269" s="53">
+        <v>2</v>
+      </c>
+      <c r="G269" s="53">
+        <v>100</v>
+      </c>
+      <c r="H269" s="53">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="I269" s="53">
+        <v>94</v>
+      </c>
+      <c r="J269" s="53">
+        <f t="shared" si="74"/>
+        <v>188</v>
+      </c>
+      <c r="K269" s="53">
+        <v>2.9</v>
+      </c>
+      <c r="L269" s="50">
+        <f t="shared" si="75"/>
+        <v>5.8</v>
+      </c>
+      <c r="M269" s="55"/>
+    </row>
+    <row r="270" spans="1:13" s="50" customFormat="1">
+      <c r="A270" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="60">
+        <f>SUMIF(C266:C277,A270,J266:J277)</f>
+        <v>90</v>
+      </c>
+      <c r="C270" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D270" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E270" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F270" s="51">
+        <v>1</v>
+      </c>
+      <c r="G270" s="51">
+        <v>100</v>
+      </c>
+      <c r="H270" s="51">
+        <f t="shared" ref="H270" si="76">F270*G270</f>
+        <v>100</v>
+      </c>
+      <c r="I270" s="51">
+        <v>126</v>
+      </c>
+      <c r="J270" s="51">
+        <f t="shared" ref="J270" si="77">H270*I270/100</f>
+        <v>126</v>
+      </c>
+      <c r="K270" s="51">
+        <v>22</v>
+      </c>
+      <c r="L270" s="50">
+        <f t="shared" ref="L270" si="78">H270*K270/100</f>
+        <v>22</v>
+      </c>
+      <c r="M270" s="55"/>
+    </row>
+    <row r="271" spans="1:13" s="50" customFormat="1">
+      <c r="A271" s="62"/>
+      <c r="B271" s="60"/>
+      <c r="C271" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D271" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E271" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F271" s="51">
+        <v>5</v>
+      </c>
+      <c r="G271" s="51">
+        <v>10</v>
+      </c>
+      <c r="H271" s="51">
+        <f t="shared" ref="H271:H273" si="79">F271*G271</f>
+        <v>50</v>
+      </c>
+      <c r="I271" s="51">
+        <v>135</v>
+      </c>
+      <c r="J271" s="51">
+        <f t="shared" ref="J271:J273" si="80">H271*I271/100</f>
+        <v>67.5</v>
+      </c>
+      <c r="K271" s="51">
+        <v>18.3</v>
+      </c>
+      <c r="L271" s="50">
+        <f t="shared" ref="L271:L273" si="81">H271*K271/100</f>
+        <v>9.15</v>
+      </c>
+      <c r="M271" s="55"/>
+    </row>
+    <row r="272" spans="1:13" s="50" customFormat="1">
+      <c r="A272" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B272" s="60"/>
+      <c r="C272" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D272" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E272" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F272" s="53">
+        <v>1</v>
+      </c>
+      <c r="G272" s="53">
+        <v>300</v>
+      </c>
+      <c r="H272" s="53">
+        <f t="shared" si="79"/>
+        <v>300</v>
+      </c>
+      <c r="I272" s="53">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J272" s="53">
+        <f t="shared" si="80"/>
+        <v>120.9</v>
+      </c>
+      <c r="K272" s="53">
+        <v>1.18</v>
+      </c>
+      <c r="L272" s="50">
+        <f t="shared" si="81"/>
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" s="50" customFormat="1">
+      <c r="A273" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" s="60">
+        <f>SUM(L266:L277)</f>
+        <v>56.973649999999999</v>
+      </c>
+      <c r="C273" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E273" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F273" s="53">
+        <v>1</v>
+      </c>
+      <c r="G273" s="53">
+        <v>10</v>
+      </c>
+      <c r="H273" s="53">
+        <f t="shared" si="79"/>
+        <v>10</v>
+      </c>
+      <c r="I273" s="53">
+        <v>900</v>
+      </c>
+      <c r="J273" s="53">
+        <f t="shared" si="80"/>
+        <v>90</v>
+      </c>
+      <c r="K273" s="53">
+        <v>0</v>
+      </c>
+      <c r="L273" s="50">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" s="50" customFormat="1">
+      <c r="A274" s="61"/>
+      <c r="B274" s="60"/>
+      <c r="C274" s="53"/>
+      <c r="D274" s="51"/>
+      <c r="E274" s="51"/>
+      <c r="F274" s="51"/>
+      <c r="G274" s="51"/>
+      <c r="H274" s="51"/>
+      <c r="I274" s="51"/>
+      <c r="J274" s="51"/>
+      <c r="K274" s="51"/>
+      <c r="M274" s="47"/>
+    </row>
+    <row r="275" spans="1:13" s="50" customFormat="1">
+      <c r="A275" s="61"/>
+      <c r="B275" s="45"/>
+      <c r="M275" s="47"/>
+    </row>
+    <row r="276" spans="1:13" s="50" customFormat="1">
+      <c r="A276" s="61"/>
+      <c r="B276" s="45"/>
+      <c r="C276" s="53"/>
+      <c r="D276" s="53"/>
+      <c r="E276" s="53"/>
+      <c r="F276" s="53"/>
+      <c r="G276" s="53"/>
+      <c r="H276" s="53"/>
+      <c r="I276" s="53"/>
+      <c r="J276" s="53"/>
+      <c r="K276" s="53"/>
+      <c r="L276" s="53"/>
+      <c r="M276" s="47"/>
+    </row>
+    <row r="277" spans="1:13" s="50" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A277" s="63"/>
+      <c r="B277" s="46"/>
+      <c r="C277" s="53"/>
+      <c r="D277" s="51"/>
+      <c r="E277" s="51"/>
+      <c r="F277" s="51"/>
+      <c r="G277" s="51"/>
+      <c r="H277" s="51"/>
+      <c r="I277" s="51"/>
+      <c r="J277" s="51"/>
+      <c r="K277" s="51"/>
+      <c r="M277" s="48"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12204,7 +14804,7 @@
   <dimension ref="B2:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12310,10 +14910,22 @@
       <c r="B13" s="67">
         <v>43628</v>
       </c>
+      <c r="D13" s="3">
+        <v>113.8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="67">
         <v>43629</v>
+      </c>
+      <c r="C14" s="3">
+        <v>111.8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:5">

--- a/keep health.xlsx
+++ b/keep health.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\health\fitness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0206F7E-DF71-49FF-9C0C-07811D5A1DD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="计划轮廓" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日饮食!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">每日饮食!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="149">
   <si>
     <t>单位</t>
   </si>
@@ -560,11 +554,19 @@
   <si>
     <t>油</t>
   </si>
+  <si>
+    <t>望京烧烤</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡翅+羊肉+大虾+韭菜+扇贝+脆骨+豆腐</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -576,7 +578,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -584,7 +586,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -593,7 +595,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -602,7 +604,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -611,7 +613,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -620,7 +622,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -628,7 +630,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -636,7 +638,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -644,7 +646,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -652,7 +654,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -661,7 +663,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -670,7 +672,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -678,7 +680,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -687,7 +689,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -695,7 +697,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -704,7 +706,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -713,7 +715,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -721,7 +723,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1583,63 +1585,63 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="常规 2 2" xfId="55"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="注释 2 2" xfId="56"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1655,21 +1657,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1694,16 +1686,14 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1746,7 +1736,7 @@
             <c:numRef>
               <c:f>体重变化!$B$3:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
@@ -1808,8 +1798,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
@@ -1857,7 +1846,7 @@
             <c:numRef>
               <c:f>体重变化!$B$3:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
@@ -1922,29 +1911,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2087102207"/>
-        <c:axId val="2087000175"/>
+        <c:axId val="69385600"/>
+        <c:axId val="73536640"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -1987,7 +1966,7 @@
             <c:numRef>
               <c:f>体重变化!$B$3:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
@@ -2052,36 +2031,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2086296319"/>
-        <c:axId val="2086991855"/>
+        <c:axId val="73556352"/>
+        <c:axId val="73538176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2087102207"/>
+        <c:axId val="69385600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2113,21 +2080,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087000175"/>
+        <c:crossAx val="73536640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2087000175"/>
+        <c:axId val="73536640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2145,7 +2111,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2171,23 +2136,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087102207"/>
+        <c:crossAx val="69385600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2086991855"/>
+        <c:axId val="73538176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2213,25 +2175,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086296319"/>
+        <c:crossAx val="73556352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="2086296319"/>
+        <c:axId val="73556352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086991855"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="73538176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2247,7 +2207,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2272,20 +2232,19 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2309,12 +2268,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2883,7 +2842,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +2888,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +2934,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +2980,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +3026,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3113,7 +3072,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3159,7 +3118,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3164,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,7 +3210,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3256,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3302,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3389,7 +3348,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3394,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3481,7 +3440,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3486,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3539,7 +3498,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3559,7 +3518,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3588,7 +3547,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3600,7 +3559,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3620,7 +3579,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3649,7 +3608,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +3620,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3681,7 +3640,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3705,7 +3664,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3710,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3797,7 +3756,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3843,7 +3802,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +3848,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3901,7 +3860,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3921,7 +3880,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3950,7 +3909,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3962,7 +3921,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3982,7 +3941,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4011,7 +3970,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4057,7 +4016,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4103,7 +4062,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4149,7 +4108,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="http://s2.boohee.cn/food/star/hamigua2-bb623c64e63a628e505152d1da65ce43.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4161,7 +4120,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4181,7 +4140,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4210,7 +4169,7 @@
         <xdr:cNvPr id="5" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4256,7 +4215,7 @@
         <xdr:cNvPr id="6" name="Picture 2" descr="http://s2.boohee.cn/food/star/jiachangbianyu-88c0bd723f724deae70a31371a4ea6b2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4261,7 @@
         <xdr:cNvPr id="31" name="Picture 30" descr="http://s2.boohee.cn/food/star/sinianguosetianxiangrouzong-5aa850b28f0f727f59c66ede2518c00b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD976885-6BD9-4158-9074-E8D4F5C043B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD976885-6BD9-4158-9074-E8D4F5C043B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4311,10 +4270,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4334,7 +4293,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4368,7 +4327,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4409,7 +4368,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EC93D8-1A21-43AE-A531-57BFC27E6B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03EC93D8-1A21-43AE-A531-57BFC27E6B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4450,7 +4409,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C23CAD-E55C-4C0C-BE00-6DB9ADC1C985}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51C23CAD-E55C-4C0C-BE00-6DB9ADC1C985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4491,7 +4450,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26240984-721A-4AAE-8CD9-47CFECCCCA78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26240984-721A-4AAE-8CD9-47CFECCCCA78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,7 +4491,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE32A9A-71AA-4BB8-A72A-042ACF358AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BE32A9A-71AA-4BB8-A72A-042ACF358AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4583,7 +4542,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06277956-5E5E-4673-9F15-CB39F2F968E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06277956-5E5E-4673-9F15-CB39F2F968E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4605,7 +4564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4647,7 +4606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4679,27 +4638,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4731,24 +4672,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4924,7 +4847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5188,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -7442,11 +7365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="J275" sqref="J275"/>
+    <sheetView topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14435,19 +14358,19 @@
         <v>300</v>
       </c>
       <c r="H266" s="53">
-        <f t="shared" ref="H266:H272" si="73">F266*G266</f>
+        <f t="shared" ref="H266:H269" si="73">F266*G266</f>
         <v>300</v>
       </c>
       <c r="I266" s="53">
         <v>46</v>
       </c>
       <c r="J266" s="53">
-        <f t="shared" ref="J266:J272" si="74">H266*I266/100</f>
+        <f t="shared" ref="J266:J269" si="74">H266*I266/100</f>
         <v>138</v>
       </c>
       <c r="K266" s="53"/>
       <c r="L266" s="50">
-        <f t="shared" ref="L266:L272" si="75">H266*K266/100</f>
+        <f t="shared" ref="L266:L269" si="75">H266*K266/100</f>
         <v>0</v>
       </c>
       <c r="M266" s="55"/>
@@ -14458,7 +14381,7 @@
       </c>
       <c r="B267" s="60">
         <f>SUM(J266:J277)</f>
-        <v>1042.51</v>
+        <v>2095.5100000000002</v>
       </c>
       <c r="C267" s="53" t="s">
         <v>43</v>
@@ -14544,7 +14467,7 @@
       </c>
       <c r="B269" s="60">
         <f>SUMIF(C266:C277,A269,J266:J277)</f>
-        <v>562.70000000000005</v>
+        <v>615.70000000000005</v>
       </c>
       <c r="C269" s="53" t="s">
         <v>43</v>
@@ -14643,21 +14566,21 @@
         <v>10</v>
       </c>
       <c r="H271" s="51">
-        <f t="shared" ref="H271:H273" si="79">F271*G271</f>
+        <f t="shared" ref="H271:H274" si="79">F271*G271</f>
         <v>50</v>
       </c>
       <c r="I271" s="51">
         <v>135</v>
       </c>
       <c r="J271" s="51">
-        <f t="shared" ref="J271:J273" si="80">H271*I271/100</f>
+        <f t="shared" ref="J271:J274" si="80">H271*I271/100</f>
         <v>67.5</v>
       </c>
       <c r="K271" s="51">
         <v>18.3</v>
       </c>
       <c r="L271" s="50">
-        <f t="shared" ref="L271:L273" si="81">H271*K271/100</f>
+        <f t="shared" ref="L271:L274" si="81">H271*K271/100</f>
         <v>9.15</v>
       </c>
       <c r="M271" s="55"/>
@@ -14707,7 +14630,7 @@
       </c>
       <c r="B273" s="60">
         <f>SUM(L266:L277)</f>
-        <v>56.973649999999999</v>
+        <v>67.073650000000001</v>
       </c>
       <c r="C273" s="53" t="s">
         <v>10</v>
@@ -14746,20 +14669,53 @@
     <row r="274" spans="1:13" s="50" customFormat="1">
       <c r="A274" s="61"/>
       <c r="B274" s="60"/>
-      <c r="C274" s="53"/>
-      <c r="D274" s="51"/>
-      <c r="E274" s="51"/>
-      <c r="F274" s="51"/>
-      <c r="G274" s="51"/>
-      <c r="H274" s="51"/>
-      <c r="I274" s="51"/>
-      <c r="J274" s="51"/>
-      <c r="K274" s="51"/>
+      <c r="C274" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D274" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E274" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F274" s="51">
+        <v>1</v>
+      </c>
+      <c r="G274" s="51">
+        <v>50</v>
+      </c>
+      <c r="H274" s="51">
+        <f t="shared" si="79"/>
+        <v>50</v>
+      </c>
+      <c r="I274" s="51">
+        <v>106</v>
+      </c>
+      <c r="J274" s="51">
+        <f t="shared" si="80"/>
+        <v>53</v>
+      </c>
+      <c r="K274" s="51">
+        <v>20.2</v>
+      </c>
+      <c r="L274" s="50">
+        <f t="shared" si="81"/>
+        <v>10.1</v>
+      </c>
       <c r="M274" s="47"/>
     </row>
     <row r="275" spans="1:13" s="50" customFormat="1">
       <c r="A275" s="61"/>
       <c r="B275" s="45"/>
+      <c r="C275" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D275" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="J275" s="50">
+        <v>1000</v>
+      </c>
       <c r="M275" s="47"/>
     </row>
     <row r="276" spans="1:13" s="50" customFormat="1">
@@ -14800,11 +14756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14932,6 +14888,9 @@
       <c r="B15" s="67">
         <v>43630</v>
       </c>
+      <c r="C15" s="3">
+        <v>111.8</v>
+      </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="67">

--- a/keep health.xlsx
+++ b/keep health.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\health\fitness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919D752-2352-4B4A-8537-896A964F8C92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="计划轮廓" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日饮食!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">每日饮食!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="164">
   <si>
     <t>单位</t>
   </si>
@@ -562,11 +568,66 @@
     <t>鸡翅+羊肉+大虾+韭菜+扇贝+脆骨+豆腐</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>碳水</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>馄饨</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>速溶豆浆</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1袋</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白粉</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白质</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1勺</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸猪排</t>
+  </si>
+  <si>
+    <t>圣女果</t>
+  </si>
+  <si>
+    <t>葡萄</t>
+  </si>
+  <si>
+    <t>牛肉干</t>
+  </si>
+  <si>
+    <t>1粒</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -578,7 +639,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -586,7 +647,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -595,7 +656,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -604,7 +665,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -613,7 +674,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -622,7 +683,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -630,7 +691,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -638,7 +699,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -646,7 +707,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -654,7 +715,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -663,7 +724,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -672,7 +733,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -680,7 +741,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -689,7 +750,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -697,7 +758,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -706,7 +767,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -715,7 +776,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -723,7 +784,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -983,7 +1044,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1216,6 +1277,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1388,7 +1471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,65 +1666,77 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="41"/>
-    <cellStyle name="常规 2 2" xfId="55"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="42"/>
-    <cellStyle name="注释 2 2" xfId="56"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1657,11 +1752,21 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1686,14 +1791,16 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1734,10 +1841,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>体重变化!$B$3:$B$14</c:f>
+              <c:f>体重变化!$B$3:$B$29</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
                 </c:pt>
@@ -1774,15 +1881,60 @@
                 <c:pt idx="11">
                   <c:v>43629</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43630</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43633</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43635</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43636</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43637</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43638</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43639</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43642</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43643</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43644</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>体重变化!$C$3:$C$14</c:f>
+              <c:f>体重变化!$C$3:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>113.2</c:v>
                 </c:pt>
@@ -1795,10 +1947,23 @@
                 <c:pt idx="11">
                   <c:v>111.8</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
@@ -1844,10 +2009,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>体重变化!$B$3:$B$14</c:f>
+              <c:f>体重变化!$B$3:$B$29</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
                 </c:pt>
@@ -1884,15 +2049,60 @@
                 <c:pt idx="11">
                   <c:v>43629</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43630</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43633</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43635</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43636</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43637</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43638</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43639</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43642</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43643</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43644</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>体重变化!$D$3:$D$14</c:f>
+              <c:f>体重变化!$D$3:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>114.7</c:v>
                 </c:pt>
@@ -1908,22 +2118,38 @@
                 <c:pt idx="10">
                   <c:v>113.8</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>111.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="69385600"/>
-        <c:axId val="73536640"/>
+        <c:smooth val="0"/>
+        <c:axId val="85384192"/>
+        <c:axId val="85406848"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -1964,10 +2190,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>体重变化!$B$3:$B$14</c:f>
+              <c:f>体重变化!$B$3:$B$29</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
                 </c:pt>
@@ -2004,15 +2230,60 @@
                 <c:pt idx="11">
                   <c:v>43629</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43630</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43633</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43635</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43636</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43637</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43638</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43639</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43640</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43642</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43643</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43644</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>体重变化!$E$3:$E$14</c:f>
+              <c:f>体重变化!$E$3:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>82</c:v>
                 </c:pt>
@@ -2028,27 +2299,42 @@
                 <c:pt idx="11">
                   <c:v>82</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73556352"/>
-        <c:axId val="73538176"/>
+        <c:smooth val="0"/>
+        <c:axId val="85422464"/>
+        <c:axId val="85408384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69385600"/>
+        <c:axId val="85384192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2080,20 +2366,21 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73536640"/>
+        <c:crossAx val="85406848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="73536640"/>
+        <c:axId val="85406848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2111,6 +2398,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2136,20 +2424,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69385600"/>
+        <c:crossAx val="85384192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73538176"/>
+        <c:axId val="85408384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2175,23 +2466,25 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73556352"/>
+        <c:crossAx val="85422464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="73556352"/>
+        <c:axId val="85422464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="73538176"/>
+        <c:crossAx val="85408384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2207,7 +2500,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2232,19 +2525,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2268,12 +2562,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2842,7 +3136,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +3182,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +3228,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +3274,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,7 +3320,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,7 +3366,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,7 +3412,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3458,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3504,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3256,7 +3550,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3288,13 +3582,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3302,7 +3596,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,13 +3628,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>148167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3348,7 +3642,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3688,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3440,7 +3734,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3780,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3498,7 +3792,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3518,7 +3812,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3547,7 +3841,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3559,7 +3853,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3579,7 +3873,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3608,7 +3902,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3620,7 +3914,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3640,7 +3934,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3664,7 +3958,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3710,7 +4004,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3756,7 +4050,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,13 +4082,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3802,7 +4096,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3848,7 +4142,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3860,7 +4154,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3880,7 +4174,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3909,7 +4203,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3921,7 +4215,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3941,7 +4235,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3956,13 +4250,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3970,7 +4264,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4002,13 +4296,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4016,7 +4310,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4062,7 +4356,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4094,13 +4388,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4108,7 +4402,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="http://s2.boohee.cn/food/star/hamigua2-bb623c64e63a628e505152d1da65ce43.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4120,7 +4414,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4140,7 +4434,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4155,13 +4449,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4169,7 +4463,7 @@
         <xdr:cNvPr id="5" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4215,7 +4509,7 @@
         <xdr:cNvPr id="6" name="Picture 2" descr="http://s2.boohee.cn/food/star/jiachangbianyu-88c0bd723f724deae70a31371a4ea6b2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4247,13 +4541,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4261,7 +4555,7 @@
         <xdr:cNvPr id="31" name="Picture 30" descr="http://s2.boohee.cn/food/star/sinianguosetianxiangrouzong-5aa850b28f0f727f59c66ede2518c00b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD976885-6BD9-4158-9074-E8D4F5C043B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4273,7 +4567,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4293,7 +4587,282 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="http://s2.boohee.cn/food/star/siniandaxianhuntun_cairou-ea67195b73fc5fea1c2ed889aeb89392.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="14049375"/>
+          <a:ext cx="685800" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>471489</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 2" descr="http://s2.boohee.cn/food/star/donggua-be7405f728406396b4dd9e0f7949ea75.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="14878050"/>
+          <a:ext cx="1157288" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="http://s2.boohee.cn/food/star/zhazhupai_yi-b6bc031c1cb50ef54ed5487ec2dd4328.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B900B02-ADB6-49F1-85BC-DE65D6E9804C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15306675"/>
+          <a:ext cx="1057275" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="http://s2.boohee.cn/food/star/yingtaofanqie-e95d466387fa911fc32ef1ac60bcb466.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6618DDAA-9A19-44AD-8132-5EB0ADF7423F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15935325"/>
+          <a:ext cx="1285875" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="http://s2.boohee.cn/food/star/putao_junzhi-06055feac85ba214067a4a5b844d0f71.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFDC363-C071-4FF5-B6F0-67979DE93F66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="9858375"/>
+          <a:ext cx="985838" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4327,7 +4896,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4368,7 +4937,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03EC93D8-1A21-43AE-A531-57BFC27E6B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4409,7 +4978,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51C23CAD-E55C-4C0C-BE00-6DB9ADC1C985}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4450,7 +5019,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26240984-721A-4AAE-8CD9-47CFECCCCA78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4491,7 +5060,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BE32A9A-71AA-4BB8-A72A-042ACF358AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4519,6 +5088,129 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="152400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="58112025"/>
+          <a:ext cx="800100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="152400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="61483875"/>
+          <a:ext cx="800100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800100" cy="152400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB94685-3D42-4C47-BB63-E458D13A8120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685801" y="64646175"/>
+          <a:ext cx="800100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4526,23 +5218,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06277956-5E5E-4673-9F15-CB39F2F968E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4564,7 +5256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4606,7 +5298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4638,9 +5330,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4672,6 +5382,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4847,11 +5575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5089,12 +5817,12 @@
       </c>
       <c r="C18" s="12">
         <f>F18/F16</f>
-        <v>433.34925943621596</v>
+        <v>382.70425226946969</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
-        <v>1814</v>
+        <v>1602</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -5111,13 +5839,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L244"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C242" sqref="C242"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59:L59"/>
+      <selection pane="bottomLeft" activeCell="L57" sqref="C57:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5247,7 +5975,7 @@
         <v>100</v>
       </c>
       <c r="H4" s="53">
-        <f t="shared" ref="H4:H66" si="1">F4*G4</f>
+        <f t="shared" ref="H4:H70" si="1">F4*G4</f>
         <v>100</v>
       </c>
       <c r="I4" s="51">
@@ -5289,7 +6017,7 @@
         <v>76</v>
       </c>
       <c r="J5" s="18">
-        <f t="shared" ref="J5:J63" si="2">H5*I5/100</f>
+        <f t="shared" ref="J5:J66" si="2">H5*I5/100</f>
         <v>30.4</v>
       </c>
       <c r="L5" s="50">
@@ -5363,7 +6091,7 @@
         <v>7</v>
       </c>
       <c r="L7" s="50">
-        <f t="shared" ref="L7:L60" si="3">H7*K7/100</f>
+        <f t="shared" ref="L7:L63" si="3">H7*K7/100</f>
         <v>7</v>
       </c>
     </row>
@@ -6729,251 +7457,275 @@
         <v>1.8232000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="43" customFormat="1">
-      <c r="A48" s="42"/>
-      <c r="C48" s="43" t="s">
+    <row r="48" spans="1:12" s="65" customFormat="1">
+      <c r="A48"/>
+      <c r="C48" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="65">
+        <v>1</v>
+      </c>
+      <c r="G48" s="65">
+        <v>10</v>
+      </c>
+      <c r="H48" s="65">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I48" s="65">
+        <v>45</v>
+      </c>
+      <c r="J48" s="65">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="K48" s="65">
+        <v>2.06</v>
+      </c>
+      <c r="L48" s="50">
+        <f t="shared" ref="L48" si="9">H48*K48/100</f>
+        <v>0.20600000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="65" customFormat="1">
+      <c r="A49" s="42"/>
+      <c r="C49" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="65">
+        <v>1</v>
+      </c>
+      <c r="G49" s="65">
+        <v>18</v>
+      </c>
+      <c r="H49" s="65">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I49" s="65">
+        <v>25</v>
+      </c>
+      <c r="J49" s="65">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="K49" s="65">
+        <v>1</v>
+      </c>
+      <c r="L49" s="50">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="43" customFormat="1">
+      <c r="A50" s="42"/>
+      <c r="C50" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E50" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F50" s="43">
         <v>1</v>
       </c>
-      <c r="G48" s="43">
+      <c r="G50" s="43">
         <v>120</v>
       </c>
-      <c r="H48" s="43">
+      <c r="H50" s="43">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I50" s="43">
         <v>16</v>
       </c>
-      <c r="J48" s="43">
-        <f t="shared" ref="J48" si="9">H48*I48/100</f>
+      <c r="J50" s="43">
+        <f t="shared" ref="J50" si="10">H50*I50/100</f>
         <v>19.2</v>
       </c>
-      <c r="K48" s="43">
+      <c r="K50" s="43">
         <v>0.8</v>
       </c>
-      <c r="L48" s="50">
+      <c r="L50" s="50">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="65" customFormat="1">
-      <c r="A49"/>
-      <c r="C49" s="65" t="s">
+    <row r="51" spans="1:12" s="65" customFormat="1">
+      <c r="A51"/>
+      <c r="C51" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D51" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E51" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="65">
+      <c r="F51" s="65">
         <v>1</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G51" s="65">
         <v>30</v>
       </c>
-      <c r="H49" s="65">
+      <c r="H51" s="65">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I49" s="65">
+      <c r="I51" s="65">
         <v>34</v>
       </c>
-      <c r="J49" s="65">
-        <f t="shared" ref="J49" si="10">H49*I49/100</f>
+      <c r="J51" s="65">
+        <f t="shared" ref="J51" si="11">H51*I51/100</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="K49" s="65">
+      <c r="K51" s="65">
         <v>0.5</v>
       </c>
-      <c r="L49" s="50">
+      <c r="L51" s="50">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="65" customFormat="1">
-      <c r="A50"/>
-      <c r="C50" s="65" t="s">
+    <row r="52" spans="1:12" s="65" customFormat="1">
+      <c r="A52"/>
+      <c r="C52" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="65" t="s">
+      <c r="D52" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="E52" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="65">
+      <c r="F52" s="65">
         <v>1</v>
       </c>
-      <c r="G50" s="65">
+      <c r="G52" s="65">
         <v>140</v>
       </c>
-      <c r="H50" s="65">
-        <f t="shared" ref="H50" si="11">F50*G50</f>
+      <c r="H52" s="65">
+        <f t="shared" ref="H52" si="12">F52*G52</f>
         <v>140</v>
       </c>
-      <c r="I50" s="65">
+      <c r="I52" s="65">
         <v>31</v>
       </c>
-      <c r="J50" s="65">
-        <f t="shared" ref="J50" si="12">H50*I50/100</f>
+      <c r="J52" s="65">
+        <f t="shared" ref="J52" si="13">H52*I52/100</f>
         <v>43.4</v>
       </c>
-      <c r="K50" s="65">
+      <c r="K52" s="65">
         <v>1.8</v>
       </c>
-      <c r="L50" s="50">
+      <c r="L52" s="50">
         <f t="shared" si="3"/>
         <v>2.52</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="18" customFormat="1">
-      <c r="A51" s="44"/>
-      <c r="C51" s="18" t="s">
+    <row r="53" spans="1:12" s="18" customFormat="1">
+      <c r="A53" s="44"/>
+      <c r="C53" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D53" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E53" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F53" s="18">
         <v>1</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G53" s="18">
         <v>100</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H53" s="18">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I53" s="18">
         <v>47</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J53" s="18">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="L51" s="50">
+      <c r="L53" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="18" customFormat="1">
-      <c r="C52" s="18" t="s">
+    <row r="54" spans="1:12" s="53" customFormat="1">
+      <c r="A54" s="66"/>
+      <c r="C54" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D54" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="53">
+        <v>1</v>
+      </c>
+      <c r="G54" s="53">
+        <v>30</v>
+      </c>
+      <c r="H54" s="53">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I54" s="53">
+        <v>428</v>
+      </c>
+      <c r="J54" s="53">
+        <f t="shared" si="2"/>
+        <v>128.4</v>
+      </c>
+      <c r="K54" s="53">
+        <v>20</v>
+      </c>
+      <c r="L54" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="18" customFormat="1">
+      <c r="C55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F55" s="18">
         <v>1</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H55" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I55" s="18">
         <v>31</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J55" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="L52" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="18" customFormat="1">
-      <c r="C53" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="18">
-        <v>1</v>
-      </c>
-      <c r="G53" s="18">
-        <v>200</v>
-      </c>
-      <c r="H53" s="18">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="I53" s="18">
-        <v>30</v>
-      </c>
-      <c r="J53" s="18">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K53" s="18">
-        <v>2.4</v>
-      </c>
-      <c r="L53" s="50">
-        <f t="shared" si="3"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="18" customFormat="1">
-      <c r="F54" s="18">
-        <v>1</v>
-      </c>
-      <c r="H54" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="18" customFormat="1">
-      <c r="C55" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="18">
-        <v>1</v>
-      </c>
-      <c r="G55" s="18">
-        <v>30</v>
-      </c>
-      <c r="H55" s="18">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I55" s="18">
-        <v>615</v>
-      </c>
-      <c r="J55" s="18">
-        <f t="shared" si="2"/>
-        <v>184.5</v>
       </c>
       <c r="L55" s="50">
         <f t="shared" si="3"/>
@@ -6981,75 +7733,73 @@
       </c>
     </row>
     <row r="56" spans="1:12" s="18" customFormat="1">
-      <c r="A56"/>
       <c r="C56" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F56" s="18">
         <v>1</v>
       </c>
       <c r="G56" s="18">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H56" s="18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I56" s="18">
-        <v>724</v>
+        <v>30</v>
       </c>
       <c r="J56" s="18">
         <f t="shared" si="2"/>
-        <v>72.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="K56" s="18">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L56" s="50">
         <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="18" customFormat="1">
-      <c r="B57"/>
-      <c r="C57" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57" s="53" t="s">
-        <v>138</v>
+      <c r="C57" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="F57" s="18">
         <v>1</v>
       </c>
       <c r="G57" s="18">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H57" s="18">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="I57" s="18">
-        <v>146</v>
+        <v>550</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" si="2"/>
-        <v>116.8</v>
+        <v>22</v>
       </c>
       <c r="K57" s="18">
-        <v>3</v>
+        <v>45.6</v>
       </c>
       <c r="L57" s="50">
         <f t="shared" si="3"/>
-        <v>2.4</v>
+        <v>1.8240000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="18" customFormat="1">
@@ -7057,45 +7807,43 @@
         <v>10</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F58" s="18">
         <v>1</v>
       </c>
       <c r="G58" s="18">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H58" s="18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I58" s="18">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="J58" s="18">
         <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="K58" s="18">
-        <v>22</v>
+        <v>184.5</v>
       </c>
       <c r="L58" s="50">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="18" customFormat="1">
+      <c r="A59"/>
       <c r="C59" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="F59" s="18">
         <v>1</v>
@@ -7108,251 +7856,551 @@
         <v>10</v>
       </c>
       <c r="I59" s="18">
-        <v>900</v>
+        <v>724</v>
       </c>
       <c r="J59" s="18">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="K59" s="18">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L59" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="18" customFormat="1">
-      <c r="C60" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>75</v>
+      <c r="B60"/>
+      <c r="C60" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>138</v>
       </c>
       <c r="F60" s="18">
         <v>1</v>
       </c>
       <c r="G60" s="18">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H60" s="18">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="I60" s="18">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="J60" s="18">
         <f t="shared" si="2"/>
-        <v>109.5</v>
+        <v>116.8</v>
       </c>
       <c r="K60" s="18">
-        <v>5.47</v>
+        <v>3</v>
       </c>
       <c r="L60" s="50">
         <f t="shared" si="3"/>
-        <v>8.2050000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="C61" s="15" t="s">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="18" customFormat="1">
+      <c r="C61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="18">
+        <v>1</v>
+      </c>
+      <c r="G61" s="18">
+        <v>100</v>
+      </c>
+      <c r="H61" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I61" s="18">
+        <v>584</v>
+      </c>
+      <c r="J61" s="18">
+        <f t="shared" si="2"/>
+        <v>584</v>
+      </c>
+      <c r="K61" s="18">
+        <v>22</v>
+      </c>
+      <c r="L61" s="50">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="18" customFormat="1">
+      <c r="C62" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="18">
+        <v>1</v>
+      </c>
+      <c r="G62" s="18">
+        <v>10</v>
+      </c>
+      <c r="H62" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I62" s="18">
+        <v>900</v>
+      </c>
+      <c r="J62" s="18">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="K62" s="18">
+        <v>0</v>
+      </c>
+      <c r="L62" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="18" customFormat="1">
+      <c r="C63" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" s="15">
+      <c r="D63" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="18">
         <v>1</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G63" s="18">
         <v>150</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H63" s="18">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I63" s="18">
+        <v>73</v>
+      </c>
+      <c r="J63" s="18">
+        <f t="shared" si="2"/>
+        <v>109.5</v>
+      </c>
+      <c r="K63" s="18">
+        <v>5.47</v>
+      </c>
+      <c r="L63" s="50">
+        <f t="shared" si="3"/>
+        <v>8.2050000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="C64" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="15">
+        <v>1</v>
+      </c>
+      <c r="G64" s="15">
+        <v>150</v>
+      </c>
+      <c r="H64" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I64" s="15">
         <v>41</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J64" s="15">
         <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K64" s="15">
         <v>1.44</v>
       </c>
-      <c r="L61" s="50">
-        <f t="shared" ref="L61:L65" si="13">H61*K61/100</f>
+      <c r="L64" s="50">
+        <f t="shared" ref="L64:L68" si="14">H64*K64/100</f>
         <v>2.16</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62"/>
-      <c r="C62" s="50" t="s">
+    <row r="65" spans="1:12">
+      <c r="A65"/>
+      <c r="C65" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D65" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E65" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F65" s="15">
         <v>1</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G65" s="15">
         <v>300</v>
       </c>
-      <c r="H62" s="50">
+      <c r="H65" s="50">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I65" s="15">
         <v>36.380000000000003</v>
       </c>
-      <c r="J62" s="50">
+      <c r="J65" s="50">
         <f t="shared" si="2"/>
         <v>109.14</v>
       </c>
-      <c r="K62" s="50">
+      <c r="K65" s="50">
         <v>1</v>
       </c>
-      <c r="L62" s="50">
-        <f t="shared" si="13"/>
+      <c r="L65" s="50">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="C63" s="50" t="s">
+    <row r="66" spans="1:12">
+      <c r="C66" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D66" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E66" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F66" s="15">
         <v>1</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G66" s="15">
         <v>400</v>
       </c>
-      <c r="H63" s="50">
+      <c r="H66" s="50">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I66" s="15">
         <v>21.03</v>
       </c>
-      <c r="J63" s="50">
+      <c r="J66" s="50">
         <f t="shared" si="2"/>
         <v>84.12</v>
       </c>
-      <c r="K63" s="50">
+      <c r="K66" s="50">
         <v>0</v>
       </c>
-      <c r="L63" s="50">
-        <f t="shared" si="13"/>
+      <c r="L66" s="50">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="H64" s="50">
+    <row r="67" spans="1:12">
+      <c r="H67" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J64" s="50">
-        <f t="shared" ref="J64:J65" si="14">H64*I64/100</f>
+      <c r="J67" s="50">
+        <f t="shared" ref="J67:J68" si="15">H67*I67/100</f>
         <v>0</v>
       </c>
-      <c r="K64" s="50">
+      <c r="K67" s="50">
         <v>1</v>
       </c>
-      <c r="L64" s="50">
-        <f t="shared" si="13"/>
+      <c r="L67" s="50">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:12">
-      <c r="B65"/>
-      <c r="C65" s="15" t="s">
+    <row r="68" spans="1:12">
+      <c r="B68"/>
+      <c r="C68" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D68" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E68" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F68" s="15">
         <v>1</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G68" s="15">
         <v>160</v>
       </c>
-      <c r="H65" s="50">
+      <c r="H68" s="50">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I68" s="15">
         <v>202</v>
       </c>
-      <c r="J65" s="50">
+      <c r="J68" s="50">
+        <f t="shared" si="15"/>
+        <v>323.2</v>
+      </c>
+      <c r="K68" s="50">
+        <v>7.5</v>
+      </c>
+      <c r="L68" s="50">
         <f t="shared" si="14"/>
-        <v>323.2</v>
-      </c>
-      <c r="K65" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="L65" s="50">
-        <f t="shared" si="13"/>
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:12">
-      <c r="C66" s="15" t="s">
+    <row r="69" spans="1:12">
+      <c r="C69" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D69" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E69" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F69" s="15">
         <v>1</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G69" s="15">
         <v>15</v>
       </c>
-      <c r="H66" s="50">
+      <c r="H69" s="50">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I69" s="15">
         <v>71</v>
       </c>
-      <c r="J66" s="50">
-        <f t="shared" ref="J66" si="15">H66*I66/100</f>
+      <c r="J69" s="50">
+        <f t="shared" ref="J69" si="16">H69*I69/100</f>
         <v>10.65</v>
       </c>
-      <c r="K66" s="50">
+      <c r="K69" s="50">
         <v>0</v>
       </c>
-      <c r="L66" s="50">
-        <f>H66*K66/100</f>
+      <c r="L69" s="50">
+        <f>H69*K69/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="6:6">
-      <c r="F241" s="15">
+    <row r="70" spans="1:12">
+      <c r="H70" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="50">
+        <f t="shared" ref="J70:J72" si="17">H70*I70/100</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="50">
+        <v>0</v>
+      </c>
+      <c r="L70" s="50">
+        <f t="shared" ref="L70" si="18">H70*K70/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="B71"/>
+      <c r="C71" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F71" s="15">
+        <v>1</v>
+      </c>
+      <c r="G71" s="15">
+        <v>15</v>
+      </c>
+      <c r="H71" s="50">
+        <f t="shared" ref="H71:H76" si="19">F71*G71</f>
+        <v>15</v>
+      </c>
+      <c r="I71" s="15">
+        <v>202</v>
+      </c>
+      <c r="J71" s="50">
+        <f t="shared" si="17"/>
+        <v>30.3</v>
+      </c>
+      <c r="K71" s="50">
+        <v>6.9</v>
+      </c>
+      <c r="L71" s="50">
+        <f>H71*K71/100</f>
+        <v>1.0349999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="C72" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72" s="15">
+        <v>1</v>
+      </c>
+      <c r="G72" s="15">
+        <v>20</v>
+      </c>
+      <c r="H72" s="15">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="I72" s="15">
+        <v>382</v>
+      </c>
+      <c r="J72" s="15">
+        <f t="shared" si="17"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K72" s="15">
+        <v>40</v>
+      </c>
+      <c r="L72" s="15">
+        <f>H72*K72/100</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="H73" s="50">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="50">
+        <f t="shared" ref="J73:J76" si="20">H73*I73/100</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="50">
+        <v>0</v>
+      </c>
+      <c r="L73" s="50">
+        <f t="shared" ref="L73:L76" si="21">H73*K73/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="B74"/>
+      <c r="C74" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" s="15">
+        <v>1</v>
+      </c>
+      <c r="G74" s="15">
+        <v>20</v>
+      </c>
+      <c r="H74" s="50">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="I74" s="15">
+        <v>12</v>
+      </c>
+      <c r="J74" s="50">
+        <f t="shared" si="20"/>
+        <v>2.4</v>
+      </c>
+      <c r="K74" s="50">
+        <v>0</v>
+      </c>
+      <c r="L74" s="50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="H75" s="50">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="50">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76"/>
+      <c r="C76" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="15">
+        <v>1</v>
+      </c>
+      <c r="G76" s="15">
+        <v>100</v>
+      </c>
+      <c r="H76" s="50">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="I76" s="15">
+        <v>216</v>
+      </c>
+      <c r="J76" s="50">
+        <f t="shared" si="20"/>
+        <v>216</v>
+      </c>
+      <c r="K76" s="15">
+        <v>14.52</v>
+      </c>
+      <c r="L76" s="50">
+        <f t="shared" si="21"/>
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78"/>
+    </row>
+    <row r="244" spans="6:6">
+      <c r="F244" s="15">
         <v>2</v>
       </c>
     </row>
@@ -7365,11 +8413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M277"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:M323"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="A279" sqref="A279"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="L326" sqref="L326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14340,7 +15388,7 @@
         <v>59</v>
       </c>
       <c r="B266" s="64">
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C266" s="53" t="s">
         <v>29</v>
@@ -14747,6 +15795,1329 @@
       <c r="K277" s="51"/>
       <c r="M277" s="48"/>
     </row>
+    <row r="280" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="281" spans="1:13">
+      <c r="A281" s="57"/>
+      <c r="B281" s="58"/>
+      <c r="C281" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E281" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F281" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G281" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H281" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I281" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J281" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K281" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L281" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M281" s="59"/>
+    </row>
+    <row r="282" spans="1:13">
+      <c r="A282" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B282" s="64">
+        <v>43631</v>
+      </c>
+      <c r="C282" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E282" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F282" s="53">
+        <v>1</v>
+      </c>
+      <c r="G282" s="53">
+        <v>100</v>
+      </c>
+      <c r="H282" s="53">
+        <f t="shared" ref="H282" si="82">F282*G282</f>
+        <v>100</v>
+      </c>
+      <c r="I282" s="53">
+        <v>29.82</v>
+      </c>
+      <c r="J282" s="53">
+        <f t="shared" ref="J282" si="83">H282*I282/100</f>
+        <v>29.82</v>
+      </c>
+      <c r="K282" s="53">
+        <v>0.68</v>
+      </c>
+      <c r="L282" s="50">
+        <f t="shared" ref="L282" si="84">H282*K282/100</f>
+        <v>0.68</v>
+      </c>
+      <c r="M282" s="55"/>
+    </row>
+    <row r="283" spans="1:13">
+      <c r="A283" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B283" s="60">
+        <f>SUM(J282:J293)</f>
+        <v>1218.7335</v>
+      </c>
+      <c r="C283" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D283" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E283" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F283" s="53">
+        <v>2</v>
+      </c>
+      <c r="G283" s="53">
+        <v>60</v>
+      </c>
+      <c r="H283" s="53">
+        <f t="shared" ref="H283:H287" si="85">F283*G283</f>
+        <v>120</v>
+      </c>
+      <c r="I283" s="53">
+        <v>151</v>
+      </c>
+      <c r="J283" s="53">
+        <f t="shared" ref="J283:J287" si="86">H283*I283/100</f>
+        <v>181.2</v>
+      </c>
+      <c r="K283" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="L283" s="53">
+        <f t="shared" ref="L283" si="87">H283*K283/100</f>
+        <v>14.52</v>
+      </c>
+      <c r="M283" s="55"/>
+    </row>
+    <row r="284" spans="1:13">
+      <c r="A284" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B284" s="60">
+        <f>SUMIF(C282:C293,A284,J282:J293)</f>
+        <v>151.02000000000001</v>
+      </c>
+      <c r="C284" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D284" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E284" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F284" s="50">
+        <v>4</v>
+      </c>
+      <c r="G284" s="50">
+        <v>15</v>
+      </c>
+      <c r="H284" s="50">
+        <f t="shared" si="85"/>
+        <v>60</v>
+      </c>
+      <c r="I284" s="50">
+        <v>202</v>
+      </c>
+      <c r="J284" s="50">
+        <f t="shared" si="86"/>
+        <v>121.2</v>
+      </c>
+      <c r="K284" s="50">
+        <v>6.9</v>
+      </c>
+      <c r="L284" s="50">
+        <f>H284*K284/100</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="M284" s="55"/>
+    </row>
+    <row r="285" spans="1:13">
+      <c r="A285" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" s="60">
+        <f>SUMIF(C282:C293,A285,J282:J293)</f>
+        <v>1024.3135</v>
+      </c>
+      <c r="C285" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D285" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E285" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F285" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="G285" s="53">
+        <v>200</v>
+      </c>
+      <c r="H285" s="53">
+        <f t="shared" si="85"/>
+        <v>250</v>
+      </c>
+      <c r="I285" s="53">
+        <v>66</v>
+      </c>
+      <c r="J285" s="53">
+        <f t="shared" si="86"/>
+        <v>165</v>
+      </c>
+      <c r="K285" s="53">
+        <v>3.2</v>
+      </c>
+      <c r="L285" s="50">
+        <f t="shared" ref="L285:L287" si="88">H285*K285/100</f>
+        <v>8</v>
+      </c>
+      <c r="M285" s="55"/>
+    </row>
+    <row r="286" spans="1:13">
+      <c r="A286" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" s="60">
+        <f>SUMIF(C282:C293,A286,J282:J293)</f>
+        <v>0</v>
+      </c>
+      <c r="C286" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D286" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E286" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F286" s="53">
+        <v>3</v>
+      </c>
+      <c r="G286" s="53">
+        <v>35</v>
+      </c>
+      <c r="H286" s="53">
+        <f t="shared" si="85"/>
+        <v>105</v>
+      </c>
+      <c r="I286" s="53">
+        <v>184.87</v>
+      </c>
+      <c r="J286" s="53">
+        <f t="shared" si="86"/>
+        <v>194.11350000000002</v>
+      </c>
+      <c r="K286" s="53">
+        <v>10.58</v>
+      </c>
+      <c r="L286" s="50">
+        <f t="shared" si="88"/>
+        <v>11.109000000000002</v>
+      </c>
+      <c r="M286" s="55"/>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="A287" s="62"/>
+      <c r="B287" s="60"/>
+      <c r="C287" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D287" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E287" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F287" s="51">
+        <v>1</v>
+      </c>
+      <c r="G287" s="51">
+        <v>450</v>
+      </c>
+      <c r="H287" s="51">
+        <f t="shared" si="85"/>
+        <v>450</v>
+      </c>
+      <c r="I287" s="51">
+        <v>84</v>
+      </c>
+      <c r="J287" s="51">
+        <f t="shared" si="86"/>
+        <v>378</v>
+      </c>
+      <c r="K287" s="51">
+        <v>6.6</v>
+      </c>
+      <c r="L287" s="50">
+        <f t="shared" si="88"/>
+        <v>29.7</v>
+      </c>
+      <c r="M287" s="55"/>
+    </row>
+    <row r="288" spans="1:13">
+      <c r="A288" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B288" s="60"/>
+      <c r="C288" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D288" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E288" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F288" s="51">
+        <v>2</v>
+      </c>
+      <c r="G288" s="51">
+        <v>50</v>
+      </c>
+      <c r="H288" s="51">
+        <f t="shared" ref="H288" si="89">F288*G288</f>
+        <v>100</v>
+      </c>
+      <c r="I288" s="51">
+        <v>106</v>
+      </c>
+      <c r="J288" s="51">
+        <f t="shared" ref="J288" si="90">H288*I288/100</f>
+        <v>106</v>
+      </c>
+      <c r="K288" s="51">
+        <v>20.2</v>
+      </c>
+      <c r="L288" s="50">
+        <f t="shared" ref="L288" si="91">H288*K288/100</f>
+        <v>20.2</v>
+      </c>
+      <c r="M288" s="50"/>
+    </row>
+    <row r="289" spans="1:13">
+      <c r="A289" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289" s="60">
+        <f>SUM(L282:L293)</f>
+        <v>90.869</v>
+      </c>
+      <c r="C289" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D289" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E289" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F289" s="65">
+        <v>1</v>
+      </c>
+      <c r="G289" s="65">
+        <v>140</v>
+      </c>
+      <c r="H289" s="65">
+        <f t="shared" ref="H289" si="92">F289*G289</f>
+        <v>140</v>
+      </c>
+      <c r="I289" s="65">
+        <v>31</v>
+      </c>
+      <c r="J289" s="65">
+        <f t="shared" ref="J289" si="93">H289*I289/100</f>
+        <v>43.4</v>
+      </c>
+      <c r="K289" s="65">
+        <v>1.8</v>
+      </c>
+      <c r="L289" s="50">
+        <f t="shared" ref="L289" si="94">H289*K289/100</f>
+        <v>2.52</v>
+      </c>
+      <c r="M289" s="50"/>
+    </row>
+    <row r="290" spans="1:13">
+      <c r="A290" s="61"/>
+      <c r="B290" s="60"/>
+      <c r="C290" s="53"/>
+      <c r="D290" s="51"/>
+      <c r="E290" s="51"/>
+      <c r="F290" s="51"/>
+      <c r="G290" s="51"/>
+      <c r="H290" s="51"/>
+      <c r="I290" s="51"/>
+      <c r="J290" s="51"/>
+      <c r="K290" s="51"/>
+      <c r="L290" s="50"/>
+      <c r="M290" s="47"/>
+    </row>
+    <row r="291" spans="1:13">
+      <c r="A291" s="61"/>
+      <c r="B291" s="45"/>
+      <c r="C291" s="50"/>
+      <c r="D291" s="50"/>
+      <c r="E291" s="50"/>
+      <c r="F291" s="50"/>
+      <c r="G291" s="50"/>
+      <c r="H291" s="50"/>
+      <c r="I291" s="50"/>
+      <c r="J291" s="50"/>
+      <c r="K291" s="50"/>
+      <c r="L291" s="50"/>
+      <c r="M291" s="47"/>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="A292" s="61"/>
+      <c r="B292" s="45"/>
+      <c r="C292" s="53"/>
+      <c r="D292" s="53"/>
+      <c r="E292" s="53"/>
+      <c r="F292" s="53"/>
+      <c r="G292" s="53"/>
+      <c r="H292" s="53"/>
+      <c r="I292" s="53"/>
+      <c r="J292" s="53"/>
+      <c r="K292" s="53"/>
+      <c r="L292" s="53"/>
+      <c r="M292" s="47"/>
+    </row>
+    <row r="293" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A293" s="63"/>
+      <c r="B293" s="46"/>
+      <c r="C293" s="53"/>
+      <c r="D293" s="51"/>
+      <c r="E293" s="51"/>
+      <c r="F293" s="51"/>
+      <c r="G293" s="51"/>
+      <c r="H293" s="51"/>
+      <c r="I293" s="51"/>
+      <c r="J293" s="51"/>
+      <c r="K293" s="51"/>
+      <c r="L293" s="50"/>
+      <c r="M293" s="48"/>
+    </row>
+    <row r="295" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="296" spans="1:13" s="50" customFormat="1">
+      <c r="A296" s="57"/>
+      <c r="B296" s="58"/>
+      <c r="C296" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D296" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E296" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F296" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G296" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H296" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I296" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J296" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K296" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L296" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M296" s="59"/>
+    </row>
+    <row r="297" spans="1:13" s="50" customFormat="1">
+      <c r="A297" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B297" s="64">
+        <v>43632</v>
+      </c>
+      <c r="C297" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D297" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E297" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F297" s="53">
+        <v>1</v>
+      </c>
+      <c r="G297" s="53">
+        <v>100</v>
+      </c>
+      <c r="H297" s="53">
+        <f t="shared" ref="H297:H301" si="95">F297*G297</f>
+        <v>100</v>
+      </c>
+      <c r="I297" s="53">
+        <v>29.82</v>
+      </c>
+      <c r="J297" s="53">
+        <f t="shared" ref="J297:J301" si="96">H297*I297/100</f>
+        <v>29.82</v>
+      </c>
+      <c r="K297" s="53">
+        <v>0.68</v>
+      </c>
+      <c r="L297" s="50">
+        <f t="shared" ref="L297:L299" si="97">H297*K297/100</f>
+        <v>0.68</v>
+      </c>
+      <c r="M297" s="55"/>
+    </row>
+    <row r="298" spans="1:13" s="50" customFormat="1">
+      <c r="A298" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B298" s="60">
+        <f>SUM(J297:J308)</f>
+        <v>802.13350000000003</v>
+      </c>
+      <c r="C298" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D298" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E298" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F298" s="53">
+        <v>2</v>
+      </c>
+      <c r="G298" s="53">
+        <v>60</v>
+      </c>
+      <c r="H298" s="53">
+        <f t="shared" si="95"/>
+        <v>120</v>
+      </c>
+      <c r="I298" s="53">
+        <v>151</v>
+      </c>
+      <c r="J298" s="53">
+        <f t="shared" si="96"/>
+        <v>181.2</v>
+      </c>
+      <c r="K298" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="L298" s="53">
+        <f t="shared" si="97"/>
+        <v>14.52</v>
+      </c>
+      <c r="M298" s="55"/>
+    </row>
+    <row r="299" spans="1:13" s="50" customFormat="1">
+      <c r="A299" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B299" s="60">
+        <f>SUMIF(C297:C308,A299,J297:J308)</f>
+        <v>118.02000000000001</v>
+      </c>
+      <c r="C299" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="E299" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F299" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G299" s="53">
+        <v>30</v>
+      </c>
+      <c r="H299" s="53">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="I299" s="53">
+        <v>428</v>
+      </c>
+      <c r="J299" s="53">
+        <f t="shared" si="96"/>
+        <v>64.2</v>
+      </c>
+      <c r="K299" s="53">
+        <v>20</v>
+      </c>
+      <c r="L299" s="50">
+        <f t="shared" si="97"/>
+        <v>3</v>
+      </c>
+      <c r="M299" s="55"/>
+    </row>
+    <row r="300" spans="1:13" s="50" customFormat="1">
+      <c r="A300" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B300" s="60">
+        <f>SUMIF(C297:C308,A300,J297:J308)</f>
+        <v>640.71350000000007</v>
+      </c>
+      <c r="C300" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D300" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E300" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F300" s="50">
+        <v>1</v>
+      </c>
+      <c r="G300" s="50">
+        <v>20</v>
+      </c>
+      <c r="H300" s="50">
+        <f t="shared" si="95"/>
+        <v>20</v>
+      </c>
+      <c r="I300" s="50">
+        <v>382</v>
+      </c>
+      <c r="J300" s="50">
+        <f t="shared" si="96"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="K300" s="50">
+        <v>40</v>
+      </c>
+      <c r="L300" s="50">
+        <f>H300*K300/100</f>
+        <v>8</v>
+      </c>
+      <c r="M300" s="55"/>
+    </row>
+    <row r="301" spans="1:13" s="50" customFormat="1">
+      <c r="A301" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" s="60">
+        <f>SUMIF(C297:C308,A301,J297:J308)</f>
+        <v>0</v>
+      </c>
+      <c r="C301" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D301" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E301" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F301" s="50">
+        <v>10</v>
+      </c>
+      <c r="G301" s="50">
+        <v>20</v>
+      </c>
+      <c r="H301" s="50">
+        <f t="shared" si="95"/>
+        <v>200</v>
+      </c>
+      <c r="I301" s="50">
+        <v>12</v>
+      </c>
+      <c r="J301" s="50">
+        <f t="shared" si="96"/>
+        <v>24</v>
+      </c>
+      <c r="K301" s="50">
+        <v>0</v>
+      </c>
+      <c r="L301" s="50">
+        <f t="shared" ref="L301" si="98">H301*K301/100</f>
+        <v>0</v>
+      </c>
+      <c r="M301" s="55"/>
+    </row>
+    <row r="302" spans="1:13" s="50" customFormat="1">
+      <c r="A302" s="62"/>
+      <c r="B302" s="60"/>
+      <c r="C302" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D302" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E302" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F302" s="53">
+        <v>3</v>
+      </c>
+      <c r="G302" s="53">
+        <v>35</v>
+      </c>
+      <c r="H302" s="53">
+        <f t="shared" ref="H302:H303" si="99">F302*G302</f>
+        <v>105</v>
+      </c>
+      <c r="I302" s="53">
+        <v>184.87</v>
+      </c>
+      <c r="J302" s="53">
+        <f t="shared" ref="J302:J303" si="100">H302*I302/100</f>
+        <v>194.11350000000002</v>
+      </c>
+      <c r="K302" s="53">
+        <v>10.58</v>
+      </c>
+      <c r="L302" s="50">
+        <f t="shared" ref="L302:L303" si="101">H302*K302/100</f>
+        <v>11.109000000000002</v>
+      </c>
+      <c r="M302" s="55"/>
+    </row>
+    <row r="303" spans="1:13" s="50" customFormat="1">
+      <c r="A303" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B303" s="60"/>
+      <c r="C303" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D303" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E303" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F303" s="65">
+        <v>1</v>
+      </c>
+      <c r="G303" s="65">
+        <v>140</v>
+      </c>
+      <c r="H303" s="65">
+        <f t="shared" si="99"/>
+        <v>140</v>
+      </c>
+      <c r="I303" s="65">
+        <v>31</v>
+      </c>
+      <c r="J303" s="65">
+        <f t="shared" si="100"/>
+        <v>43.4</v>
+      </c>
+      <c r="K303" s="65">
+        <v>1.8</v>
+      </c>
+      <c r="L303" s="50">
+        <f t="shared" si="101"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" s="50" customFormat="1">
+      <c r="A304" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B304" s="60">
+        <f>SUM(L297:L308)</f>
+        <v>72.829000000000008</v>
+      </c>
+      <c r="C304" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D304" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E304" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F304" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G304" s="51">
+        <v>100</v>
+      </c>
+      <c r="H304" s="51">
+        <f>F304*G304</f>
+        <v>150</v>
+      </c>
+      <c r="I304" s="51">
+        <v>126</v>
+      </c>
+      <c r="J304" s="51">
+        <f>H304*I304/100</f>
+        <v>189</v>
+      </c>
+      <c r="K304" s="51">
+        <v>22</v>
+      </c>
+      <c r="L304" s="53">
+        <f>H304*K304/100</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" s="50" customFormat="1">
+      <c r="A305" s="61"/>
+      <c r="B305" s="60"/>
+      <c r="C305" s="53"/>
+      <c r="D305" s="51"/>
+      <c r="E305" s="51"/>
+      <c r="F305" s="51"/>
+      <c r="G305" s="51"/>
+      <c r="H305" s="51"/>
+      <c r="I305" s="51"/>
+      <c r="J305" s="51"/>
+      <c r="K305" s="51"/>
+      <c r="M305" s="47"/>
+    </row>
+    <row r="306" spans="1:13" s="50" customFormat="1">
+      <c r="A306" s="61"/>
+      <c r="B306" s="45"/>
+      <c r="M306" s="47"/>
+    </row>
+    <row r="307" spans="1:13" s="50" customFormat="1">
+      <c r="A307" s="61"/>
+      <c r="B307" s="45"/>
+      <c r="C307" s="53"/>
+      <c r="D307" s="53"/>
+      <c r="E307" s="53"/>
+      <c r="F307" s="53"/>
+      <c r="G307" s="53"/>
+      <c r="H307" s="53"/>
+      <c r="I307" s="53"/>
+      <c r="J307" s="53"/>
+      <c r="K307" s="53"/>
+      <c r="L307" s="53"/>
+      <c r="M307" s="47"/>
+    </row>
+    <row r="308" spans="1:13" s="50" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A308" s="63"/>
+      <c r="B308" s="46"/>
+      <c r="C308" s="53"/>
+      <c r="D308" s="51"/>
+      <c r="E308" s="51"/>
+      <c r="F308" s="51"/>
+      <c r="G308" s="51"/>
+      <c r="H308" s="51"/>
+      <c r="I308" s="51"/>
+      <c r="J308" s="51"/>
+      <c r="K308" s="51"/>
+      <c r="M308" s="48"/>
+    </row>
+    <row r="310" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="311" spans="1:13" s="50" customFormat="1">
+      <c r="A311" s="57"/>
+      <c r="B311" s="58"/>
+      <c r="C311" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D311" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F311" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G311" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H311" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I311" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J311" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K311" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L311" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M311" s="59"/>
+    </row>
+    <row r="312" spans="1:13" s="50" customFormat="1">
+      <c r="A312" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B312" s="64">
+        <v>43633</v>
+      </c>
+      <c r="C312" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D312" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E312" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F312" s="53">
+        <v>1</v>
+      </c>
+      <c r="G312" s="53">
+        <v>100</v>
+      </c>
+      <c r="H312" s="53">
+        <f t="shared" ref="H312:H318" si="102">F312*G312</f>
+        <v>100</v>
+      </c>
+      <c r="I312" s="53">
+        <v>29.82</v>
+      </c>
+      <c r="J312" s="53">
+        <f t="shared" ref="J312:J318" si="103">H312*I312/100</f>
+        <v>29.82</v>
+      </c>
+      <c r="K312" s="53">
+        <v>0.68</v>
+      </c>
+      <c r="L312" s="50">
+        <f t="shared" ref="L312:L315" si="104">H312*K312/100</f>
+        <v>0.68</v>
+      </c>
+      <c r="M312" s="55"/>
+    </row>
+    <row r="313" spans="1:13" s="50" customFormat="1">
+      <c r="A313" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B313" s="60">
+        <f>SUM(J312:J323)</f>
+        <v>977.54</v>
+      </c>
+      <c r="C313" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D313" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E313" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F313" s="53">
+        <v>1</v>
+      </c>
+      <c r="G313" s="53">
+        <v>60</v>
+      </c>
+      <c r="H313" s="53">
+        <f t="shared" si="102"/>
+        <v>60</v>
+      </c>
+      <c r="I313" s="53">
+        <v>151</v>
+      </c>
+      <c r="J313" s="53">
+        <f t="shared" si="103"/>
+        <v>90.6</v>
+      </c>
+      <c r="K313" s="53">
+        <v>12.1</v>
+      </c>
+      <c r="L313" s="53">
+        <f t="shared" si="104"/>
+        <v>7.26</v>
+      </c>
+      <c r="M313" s="55"/>
+    </row>
+    <row r="314" spans="1:13" s="50" customFormat="1">
+      <c r="A314" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B314" s="60">
+        <f>SUMIF(C312:C323,A314,J312:J323)</f>
+        <v>469.77</v>
+      </c>
+      <c r="C314" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E314" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F314" s="56">
+        <v>3</v>
+      </c>
+      <c r="G314" s="56">
+        <v>45</v>
+      </c>
+      <c r="H314" s="56">
+        <f t="shared" si="102"/>
+        <v>135</v>
+      </c>
+      <c r="I314" s="56">
+        <v>197</v>
+      </c>
+      <c r="J314" s="56">
+        <f t="shared" si="103"/>
+        <v>265.95</v>
+      </c>
+      <c r="K314" s="56">
+        <v>8.52</v>
+      </c>
+      <c r="L314" s="50">
+        <f t="shared" si="104"/>
+        <v>11.502000000000001</v>
+      </c>
+      <c r="M314" s="55"/>
+    </row>
+    <row r="315" spans="1:13" s="50" customFormat="1">
+      <c r="A315" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B315" s="60">
+        <f>SUMIF(C312:C323,A315,J312:J323)</f>
+        <v>350.6</v>
+      </c>
+      <c r="C315" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D315" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E315" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F315" s="50">
+        <v>1</v>
+      </c>
+      <c r="G315" s="50">
+        <v>100</v>
+      </c>
+      <c r="H315" s="50">
+        <f t="shared" si="102"/>
+        <v>100</v>
+      </c>
+      <c r="I315" s="50">
+        <v>216</v>
+      </c>
+      <c r="J315" s="50">
+        <f t="shared" si="103"/>
+        <v>216</v>
+      </c>
+      <c r="K315" s="50">
+        <v>14.52</v>
+      </c>
+      <c r="L315" s="50">
+        <f t="shared" si="104"/>
+        <v>14.52</v>
+      </c>
+      <c r="M315" s="55"/>
+    </row>
+    <row r="316" spans="1:13" s="50" customFormat="1">
+      <c r="A316" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" s="60">
+        <f>SUMIF(C312:C323,A316,J312:J323)</f>
+        <v>0</v>
+      </c>
+      <c r="C316" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D316" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E316" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F316" s="53">
+        <v>1</v>
+      </c>
+      <c r="G316" s="53">
+        <v>150</v>
+      </c>
+      <c r="H316" s="53">
+        <f t="shared" ref="H316:H321" si="105">F316*G316</f>
+        <v>150</v>
+      </c>
+      <c r="I316" s="53">
+        <v>116</v>
+      </c>
+      <c r="J316" s="53">
+        <f t="shared" ref="J316:J321" si="106">H316*I316/100</f>
+        <v>174</v>
+      </c>
+      <c r="K316" s="53"/>
+      <c r="L316" s="50">
+        <f t="shared" ref="L316:L321" si="107">H316*K316/100</f>
+        <v>0</v>
+      </c>
+      <c r="M316" s="55"/>
+    </row>
+    <row r="317" spans="1:13" s="50" customFormat="1">
+      <c r="A317" s="62"/>
+      <c r="B317" s="60"/>
+      <c r="C317" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D317" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E317" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F317" s="22">
+        <v>1</v>
+      </c>
+      <c r="G317" s="22">
+        <v>89</v>
+      </c>
+      <c r="H317" s="22">
+        <f t="shared" si="105"/>
+        <v>89</v>
+      </c>
+      <c r="I317" s="22">
+        <v>93</v>
+      </c>
+      <c r="J317" s="22">
+        <f t="shared" si="106"/>
+        <v>82.77</v>
+      </c>
+      <c r="K317" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="L317" s="50">
+        <f t="shared" si="107"/>
+        <v>1.246</v>
+      </c>
+      <c r="M317" s="47"/>
+    </row>
+    <row r="318" spans="1:13" s="50" customFormat="1">
+      <c r="A318" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B318" s="60"/>
+      <c r="C318" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D318" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E318" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F318" s="65">
+        <v>2</v>
+      </c>
+      <c r="G318" s="65">
+        <v>30</v>
+      </c>
+      <c r="H318" s="65">
+        <f t="shared" si="105"/>
+        <v>60</v>
+      </c>
+      <c r="I318" s="65">
+        <v>34</v>
+      </c>
+      <c r="J318" s="65">
+        <f t="shared" si="106"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K318" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="L318" s="50">
+        <f t="shared" si="107"/>
+        <v>0.3</v>
+      </c>
+      <c r="M318" s="47"/>
+    </row>
+    <row r="319" spans="1:13" s="50" customFormat="1">
+      <c r="A319" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B319" s="60">
+        <f>SUM(L312:L323)</f>
+        <v>41.472000000000001</v>
+      </c>
+      <c r="C319" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D319" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E319" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F319" s="65">
+        <v>6</v>
+      </c>
+      <c r="G319" s="65">
+        <v>18</v>
+      </c>
+      <c r="H319" s="65">
+        <f t="shared" si="105"/>
+        <v>108</v>
+      </c>
+      <c r="I319" s="65">
+        <v>25</v>
+      </c>
+      <c r="J319" s="65">
+        <f t="shared" si="106"/>
+        <v>27</v>
+      </c>
+      <c r="K319" s="65">
+        <v>1</v>
+      </c>
+      <c r="L319" s="50">
+        <f t="shared" si="107"/>
+        <v>1.08</v>
+      </c>
+      <c r="M319" s="47"/>
+    </row>
+    <row r="320" spans="1:13" s="50" customFormat="1">
+      <c r="A320" s="61"/>
+      <c r="B320" s="60"/>
+      <c r="C320" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D320" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E320" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F320" s="65">
+        <v>6</v>
+      </c>
+      <c r="G320" s="65">
+        <v>10</v>
+      </c>
+      <c r="H320" s="65">
+        <f t="shared" si="105"/>
+        <v>60</v>
+      </c>
+      <c r="I320" s="65">
+        <v>45</v>
+      </c>
+      <c r="J320" s="65">
+        <f t="shared" si="106"/>
+        <v>27</v>
+      </c>
+      <c r="K320" s="65">
+        <v>2.06</v>
+      </c>
+      <c r="L320" s="50">
+        <f t="shared" si="107"/>
+        <v>1.236</v>
+      </c>
+      <c r="M320" s="47"/>
+    </row>
+    <row r="321" spans="1:13" s="50" customFormat="1">
+      <c r="A321" s="61"/>
+      <c r="B321" s="45"/>
+      <c r="C321" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="E321" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="F321" s="53">
+        <v>2</v>
+      </c>
+      <c r="G321" s="53">
+        <v>4</v>
+      </c>
+      <c r="H321" s="53">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="I321" s="53">
+        <v>550</v>
+      </c>
+      <c r="J321" s="53">
+        <f t="shared" si="106"/>
+        <v>44</v>
+      </c>
+      <c r="K321" s="53">
+        <v>45.6</v>
+      </c>
+      <c r="L321" s="50">
+        <f t="shared" si="107"/>
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="M321" s="47"/>
+    </row>
+    <row r="322" spans="1:13" s="50" customFormat="1">
+      <c r="A322" s="61"/>
+      <c r="B322" s="45"/>
+      <c r="C322" s="56"/>
+      <c r="D322" s="56"/>
+      <c r="E322" s="56"/>
+      <c r="F322" s="56"/>
+      <c r="G322" s="56"/>
+      <c r="H322" s="56"/>
+      <c r="I322" s="56"/>
+      <c r="J322" s="56"/>
+      <c r="K322" s="56"/>
+      <c r="L322" s="56"/>
+      <c r="M322" s="47"/>
+    </row>
+    <row r="323" spans="1:13" s="50" customFormat="1">
+      <c r="A323" s="68"/>
+      <c r="B323" s="69"/>
+      <c r="C323" s="70"/>
+      <c r="D323" s="20"/>
+      <c r="E323" s="20"/>
+      <c r="F323" s="20"/>
+      <c r="G323" s="20"/>
+      <c r="H323" s="20"/>
+      <c r="I323" s="20"/>
+      <c r="J323" s="20"/>
+      <c r="K323" s="20"/>
+      <c r="L323" s="69"/>
+      <c r="M323" s="71"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14756,11 +17127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14896,83 +17267,101 @@
       <c r="B16" s="67">
         <v>43631</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16" s="3">
+        <v>111.2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="67">
         <v>43632</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17" s="3">
+        <v>110.4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>111.8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="67">
         <v>43633</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" s="3">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="67">
         <v>43634</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:5">
       <c r="B20" s="67">
         <v>43635</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:5">
       <c r="B21" s="67">
         <v>43636</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:5">
       <c r="B22" s="67">
         <v>43637</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:5">
       <c r="B23" s="67">
         <v>43638</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:5">
       <c r="B24" s="67">
         <v>43639</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:5">
       <c r="B25" s="67">
         <v>43640</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:5">
       <c r="B26" s="67">
         <v>43641</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:5">
       <c r="B27" s="67">
         <v>43642</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:5">
       <c r="B28" s="67">
         <v>43643</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:5">
       <c r="B29" s="67">
         <v>43644</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:5">
       <c r="B30" s="67">
         <v>43645</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:5">
       <c r="B31" s="67">
         <v>43646</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:5">
       <c r="B32" s="67">
         <v>43647</v>
       </c>

--- a/keep health.xlsx
+++ b/keep health.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\health\fitness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919D752-2352-4B4A-8537-896A964F8C92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="计划轮廓" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">每日饮食!$C$16:$C$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">每日饮食!$F$23:$F$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="164">
   <si>
     <t>单位</t>
   </si>
@@ -627,7 +621,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -639,7 +633,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -647,7 +641,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -656,7 +650,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -665,7 +659,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -674,7 +668,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -683,7 +677,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -691,7 +685,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -699,7 +693,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -707,7 +701,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -715,7 +709,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -724,7 +718,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -733,7 +727,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -741,7 +735,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -750,7 +744,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -758,7 +752,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -767,7 +761,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -776,7 +770,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -784,7 +778,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1680,63 +1674,63 @@
     </xf>
   </cellXfs>
   <cellStyles count="57">
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="常规 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="注释 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="54"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="常规 2 2" xfId="55"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42"/>
+    <cellStyle name="注释 2 2" xfId="56"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1752,21 +1746,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1791,16 +1775,14 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1843,7 +1825,7 @@
             <c:numRef>
               <c:f>体重变化!$B$3:$B$29</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
@@ -1959,11 +1941,13 @@
                 <c:pt idx="15">
                   <c:v>111.8</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>111.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
@@ -2011,7 +1995,7 @@
             <c:numRef>
               <c:f>体重变化!$B$3:$B$29</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
@@ -2124,32 +2108,25 @@
                 <c:pt idx="14">
                   <c:v>111.8</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="85384192"/>
-        <c:axId val="85406848"/>
+        <c:axId val="87591552"/>
+        <c:axId val="87613824"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -2192,7 +2169,7 @@
             <c:numRef>
               <c:f>体重变化!$B$3:$B$29</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43618</c:v>
@@ -2302,39 +2279,30 @@
                 <c:pt idx="14">
                   <c:v>83</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5A57-4400-9C0F-63F26A10E2D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="85422464"/>
-        <c:axId val="85408384"/>
+        <c:axId val="87616896"/>
+        <c:axId val="87615360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85384192"/>
+        <c:axId val="87591552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2366,21 +2334,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85406848"/>
+        <c:crossAx val="87613824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85406848"/>
+        <c:axId val="87613824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2398,7 +2365,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2424,23 +2390,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85384192"/>
+        <c:crossAx val="87591552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85408384"/>
+        <c:axId val="87615360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2466,25 +2429,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85422464"/>
+        <c:crossAx val="87616896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="85422464"/>
+        <c:axId val="87616896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="85408384"/>
+        <c:crossAx val="87615360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2500,7 +2461,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2525,20 +2486,19 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2562,12 +2522,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3136,7 +3096,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3182,7 +3142,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3188,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3274,7 +3234,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3280,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3326,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,7 +3372,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +3418,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3464,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3550,7 +3510,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3556,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3602,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3688,7 +3648,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3694,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3780,7 +3740,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3792,7 +3752,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3812,7 +3772,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3841,7 +3801,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,7 +3813,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3873,7 +3833,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3902,7 +3862,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3914,7 +3874,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3934,7 +3894,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3958,7 +3918,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4004,7 +3964,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4050,7 +4010,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4096,7 +4056,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4142,7 +4102,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4154,7 +4114,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4174,7 +4134,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4203,7 +4163,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4215,7 +4175,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4235,7 +4195,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4264,7 +4224,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,7 +4270,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4356,7 +4316,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4402,7 +4362,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="http://s2.boohee.cn/food/star/hamigua2-bb623c64e63a628e505152d1da65ce43.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4414,7 +4374,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4434,7 +4394,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4463,7 +4423,7 @@
         <xdr:cNvPr id="5" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4469,7 @@
         <xdr:cNvPr id="6" name="Picture 2" descr="http://s2.boohee.cn/food/star/jiachangbianyu-88c0bd723f724deae70a31371a4ea6b2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4555,7 +4515,7 @@
         <xdr:cNvPr id="31" name="Picture 30" descr="http://s2.boohee.cn/food/star/sinianguosetianxiangrouzong-5aa850b28f0f727f59c66ede2518c00b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4567,7 +4527,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4587,7 +4547,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4616,7 +4576,7 @@
         <xdr:cNvPr id="7" name="Picture 1" descr="http://s2.boohee.cn/food/star/siniandaxianhuntun_cairou-ea67195b73fc5fea1c2ed889aeb89392.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4662,7 +4622,7 @@
         <xdr:cNvPr id="8" name="Picture 2" descr="http://s2.boohee.cn/food/star/donggua-be7405f728406396b4dd9e0f7949ea75.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4708,7 +4668,7 @@
         <xdr:cNvPr id="34" name="Picture 33" descr="http://s2.boohee.cn/food/star/zhazhupai_yi-b6bc031c1cb50ef54ed5487ec2dd4328.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B900B02-ADB6-49F1-85BC-DE65D6E9804C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B900B02-ADB6-49F1-85BC-DE65D6E9804C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4717,10 +4677,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4740,7 +4700,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4769,7 +4729,7 @@
         <xdr:cNvPr id="35" name="Picture 34" descr="http://s2.boohee.cn/food/star/yingtaofanqie-e95d466387fa911fc32ef1ac60bcb466.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6618DDAA-9A19-44AD-8132-5EB0ADF7423F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6618DDAA-9A19-44AD-8132-5EB0ADF7423F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4778,10 +4738,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4801,7 +4761,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4830,7 +4790,7 @@
         <xdr:cNvPr id="36" name="Picture 35" descr="http://s2.boohee.cn/food/star/putao_junzhi-06055feac85ba214067a4a5b844d0f71.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFDC363-C071-4FF5-B6F0-67979DE93F66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AFDC363-C071-4FF5-B6F0-67979DE93F66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4839,10 +4799,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4862,7 +4822,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4896,7 +4856,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4937,7 +4897,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4978,7 +4938,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5019,7 +4979,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5060,7 +5020,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5101,7 +5061,7 @@
         <xdr:cNvPr id="7" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5142,7 +5102,7 @@
         <xdr:cNvPr id="9" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5170,47 +5130,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>321</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="800100" cy="152400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB94685-3D42-4C47-BB63-E458D13A8120}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685801" y="64646175"/>
-          <a:ext cx="800100" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5219,22 +5138,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5256,7 +5175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5298,7 +5217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5330,27 +5249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5382,24 +5283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5575,7 +5458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5839,7 +5722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8413,11 +8296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="L326" sqref="L326"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="H324" sqref="H324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16702,14 +16585,14 @@
         <v>100</v>
       </c>
       <c r="H312" s="53">
-        <f t="shared" ref="H312:H318" si="102">F312*G312</f>
+        <f t="shared" ref="H312:H315" si="102">F312*G312</f>
         <v>100</v>
       </c>
       <c r="I312" s="53">
         <v>29.82</v>
       </c>
       <c r="J312" s="53">
-        <f t="shared" ref="J312:J318" si="103">H312*I312/100</f>
+        <f t="shared" ref="J312:J315" si="103">H312*I312/100</f>
         <v>29.82</v>
       </c>
       <c r="K312" s="53">
@@ -16727,7 +16610,7 @@
       </c>
       <c r="B313" s="60">
         <f>SUM(J312:J323)</f>
-        <v>977.54</v>
+        <v>1166.54</v>
       </c>
       <c r="C313" s="53" t="s">
         <v>43</v>
@@ -16813,7 +16696,7 @@
       </c>
       <c r="B315" s="60">
         <f>SUMIF(C312:C323,A315,J312:J323)</f>
-        <v>350.6</v>
+        <v>539.6</v>
       </c>
       <c r="C315" s="50" t="s">
         <v>9</v>
@@ -16975,7 +16858,7 @@
       </c>
       <c r="B319" s="60">
         <f>SUM(L312:L323)</f>
-        <v>41.472000000000001</v>
+        <v>74.472000000000008</v>
       </c>
       <c r="C319" s="65" t="s">
         <v>90</v>
@@ -17091,17 +16974,39 @@
     <row r="322" spans="1:13" s="50" customFormat="1">
       <c r="A322" s="61"/>
       <c r="B322" s="45"/>
-      <c r="C322" s="56"/>
-      <c r="D322" s="56"/>
-      <c r="E322" s="56"/>
-      <c r="F322" s="56"/>
-      <c r="G322" s="56"/>
-      <c r="H322" s="56"/>
-      <c r="I322" s="56"/>
-      <c r="J322" s="56"/>
-      <c r="K322" s="56"/>
-      <c r="L322" s="56"/>
-      <c r="M322" s="47"/>
+      <c r="C322" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D322" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E322" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F322" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G322" s="51">
+        <v>100</v>
+      </c>
+      <c r="H322" s="51">
+        <f>F322*G322</f>
+        <v>150</v>
+      </c>
+      <c r="I322" s="51">
+        <v>126</v>
+      </c>
+      <c r="J322" s="51">
+        <f>H322*I322/100</f>
+        <v>189</v>
+      </c>
+      <c r="K322" s="51">
+        <v>22</v>
+      </c>
+      <c r="L322" s="53">
+        <f>H322*K322/100</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="323" spans="1:13" s="50" customFormat="1">
       <c r="A323" s="68"/>
@@ -17127,11 +17032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17295,10 +17200,19 @@
       <c r="C18" s="3">
         <v>111.8</v>
       </c>
+      <c r="D18" s="3">
+        <v>113.3</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="67">
         <v>43634</v>
+      </c>
+      <c r="C19" s="3">
+        <v>111.5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>80.5</v>
       </c>
     </row>
     <row r="20" spans="2:5">
